--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="예시 첨부 " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,10 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">스킬4 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>궁극 스킬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,17 +101,52 @@
     <t>변신 3타 공격</t>
   </si>
   <si>
-    <t>변신 스킬1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 스킬2</t>
-  </si>
-  <si>
-    <t>변신 스킬3</t>
-  </si>
-  <si>
-    <t>변신 스킬4</t>
+    <t>변신 스킬 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">피격 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 해제 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">환경 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템 획득 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구여진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조승연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -170,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -224,6 +254,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -233,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +319,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -261,11 +340,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -548,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:H18"/>
+      <selection activeCell="E12" sqref="E12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,14 +646,15 @@
     <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -581,18 +667,21 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1"/>
@@ -600,397 +689,500 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="D15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="1"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A4:A19"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E17:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="리스트 " sheetId="1" r:id="rId1"/>
-    <sheet name="예시 첨부 " sheetId="2" r:id="rId2"/>
+    <sheet name="개요" sheetId="3" r:id="rId1"/>
+    <sheet name="리스트 " sheetId="1" r:id="rId2"/>
+    <sheet name="예시 첨부 " sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -146,6 +147,70 @@
   </si>
   <si>
     <t>조승연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강일구 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">초안작성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.07.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규프로젝트_이펙트 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 몬스터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 이펙트 (무슨 형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 이펙트(원형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Range_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Range_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 기본 공격 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 스킬 공격 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 채찍 공격 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +251,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -200,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -291,6 +365,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -300,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,6 +442,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,17 +463,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,16 +762,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:H12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="30.125" bestFit="1" customWidth="1"/>
@@ -667,12 +858,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="7" t="s">
         <v>28</v>
       </c>
@@ -681,7 +872,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1"/>
@@ -689,106 +880,106 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="6" t="s">
         <v>29</v>
       </c>
@@ -797,187 +988,185 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -985,204 +1174,314 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="A24" s="15"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="6"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="6"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="6"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="6"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="6"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="6"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="6"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="6"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="D32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="6"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="6"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="6"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="6"/>
       <c r="J35" s="1"/>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A4:A19"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="A24:A29"/>
+  <mergeCells count="45">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E30:H30"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E27:H27"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A4:A19"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1190,7 +1489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A220B5F-625B-48CE-B34C-B8379842459D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,10 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1타 공격 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -210,14 +207,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">맥 채찍 공격 </t>
+    <t>몬스터(공용)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터(맥)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터(드림캐쳐 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -335,34 +340,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,10 +421,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -454,31 +445,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -774,33 +747,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>38</v>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -823,11 +796,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -858,603 +831,718 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="6"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>39</v>
+      <c r="A20" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="8"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="8"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="8"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="8"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="8"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="8"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="8"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>8</v>
+      <c r="A27" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="6" t="s">
-        <v>30</v>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="6" t="s">
-        <v>30</v>
+      <c r="H30" s="18"/>
+      <c r="I30" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="A31" s="19"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="17"/>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="6"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="6"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="6"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="6"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="6"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="6"/>
+      <c r="D37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="6"/>
+      <c r="D38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="6"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
       <c r="I40" s="6"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
       <c r="I41" s="6"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
       <c r="I42" s="6"/>
       <c r="J42" s="1"/>
     </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
+  <mergeCells count="53">
     <mergeCell ref="E35:H35"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A4:A19"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E30:H30"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
@@ -1465,23 +1553,22 @@
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A4:A19"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1490,7 +1577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A220B5F-625B-48CE-B34C-B8379842459D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,14 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -216,13 +207,126 @@
   </si>
   <si>
     <t>몬스터(드림캐쳐 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 피격 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본공격 피격 시 몬스터에 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_Hit_001 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Attack_Nomal_002</t>
+  </si>
+  <si>
+    <t>Player_Attack_Nomal_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 기본 공격 1타 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 기본 공격 2타</t>
+  </si>
+  <si>
+    <t>플레이어 기본 공격 3타</t>
+  </si>
+  <si>
+    <t>Player_Attack_Nomal_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Skill_Nomal_003</t>
+  </si>
+  <si>
+    <t>Player_Attack_Special_002</t>
+  </si>
+  <si>
+    <t>Player_Attack_Special_003</t>
+  </si>
+  <si>
+    <t>스킬1번 입력 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬2번 입력 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬1 구체 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬1 발사 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬1 피격  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 1번 충돌 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬1이 몬스터와 충돌 시 출력 하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">평타 타격 후 스킬1 사용 조건인 구체 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구여진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 입력 시 발사 되는 이펙트 ? </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Hit_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 피격 시 출력 하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Change_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Change_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 해제 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시네마틱 카메라와 연계 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Player_Attack_Special_001 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +534,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,18 +556,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -734,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -748,32 +855,32 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -796,21 +903,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C34:C35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.3">
@@ -831,460 +939,482 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="6" t="s">
-        <v>28</v>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="6" t="s">
-        <v>28</v>
+        <v>63</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="1"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
+      <c r="A20" s="19"/>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="11" t="s">
-        <v>28</v>
+      <c r="H20" s="17"/>
+      <c r="I20" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="16"/>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -1293,28 +1423,26 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="A33" s="19"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="6" t="s">
-        <v>29</v>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -1323,252 +1451,437 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="11" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="11" t="s">
-        <v>28</v>
+      <c r="D38" s="1"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="6"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
+      <c r="A40" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="6"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="6"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="6"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="6"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
+      <c r="A44" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="6"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="6"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="6"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="6"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
+      <c r="A48" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="6"/>
+      <c r="D48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="J48" s="1"/>
     </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="A4:A19"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="A37:A42"/>
+  <mergeCells count="64">
+    <mergeCell ref="E27:H27"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E36:H36"/>
     <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1577,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -320,6 +320,14 @@
   </si>
   <si>
     <t xml:space="preserve">Player_Attack_Special_001 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster001_Attack_Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster001_Skill_Effect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,6 +545,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,9 +555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -907,7 +915,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,10 +973,10 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="6" t="s">
         <v>26</v>
       </c>
@@ -985,10 +993,10 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1005,10 +1013,10 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1021,12 +1029,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="13" t="s">
         <v>66</v>
       </c>
@@ -1041,12 +1049,12 @@
       <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1061,12 +1069,12 @@
       <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="13" t="s">
         <v>26</v>
       </c>
@@ -1079,10 +1087,10 @@
       <c r="D10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1093,10 +1101,10 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1107,10 +1115,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1127,10 +1135,10 @@
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="6" t="s">
         <v>26</v>
       </c>
@@ -1143,10 +1151,10 @@
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="6" t="s">
         <v>26</v>
       </c>
@@ -1161,10 +1169,10 @@
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="6" t="s">
         <v>26</v>
       </c>
@@ -1179,10 +1187,10 @@
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1197,10 +1205,10 @@
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="6" t="s">
         <v>26</v>
       </c>
@@ -1215,12 +1223,12 @@
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="6" t="s">
         <v>26</v>
       </c>
@@ -1237,10 +1245,10 @@
       <c r="D19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1259,10 +1267,10 @@
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="6" t="s">
         <v>26</v>
       </c>
@@ -1275,10 +1283,10 @@
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
@@ -1289,10 +1297,10 @@
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="13"/>
       <c r="J22" s="1"/>
     </row>
@@ -1301,10 +1309,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
@@ -1313,10 +1321,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
@@ -1325,10 +1333,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
@@ -1337,10 +1345,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
@@ -1349,10 +1357,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
@@ -1361,10 +1369,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="11" t="s">
         <v>26</v>
       </c>
@@ -1381,10 +1389,10 @@
         <v>38</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="11" t="s">
         <v>26</v>
       </c>
@@ -1395,10 +1403,10 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="11" t="s">
         <v>26</v>
       </c>
@@ -1409,10 +1417,10 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="11" t="s">
         <v>26</v>
       </c>
@@ -1423,10 +1431,10 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="11" t="s">
         <v>26</v>
       </c>
@@ -1437,10 +1445,10 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="11" t="s">
         <v>26</v>
       </c>
@@ -1451,10 +1459,10 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="11" t="s">
         <v>26</v>
       </c>
@@ -1465,17 +1473,17 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1485,17 +1493,17 @@
         <v>37</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1505,165 +1513,168 @@
       <c r="D37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="13" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="16"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="2"/>
@@ -1671,177 +1682,177 @@
       <c r="D48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E47:H47"/>
@@ -1858,30 +1869,30 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -13,8 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
-    <sheet name="리스트 " sheetId="1" r:id="rId2"/>
-    <sheet name="예시 첨부 " sheetId="2" r:id="rId3"/>
+    <sheet name="플레이어 " sheetId="4" r:id="rId2"/>
+    <sheet name="몬스터(맥)" sheetId="5" r:id="rId3"/>
+    <sheet name="몬스터(드림캐쳐)" sheetId="6" r:id="rId4"/>
+    <sheet name="보스" sheetId="2" r:id="rId5"/>
+    <sheet name="환경 이펙트 " sheetId="7" r:id="rId6"/>
+    <sheet name="전체 리스트 (최신화 안됨)" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="152">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,10 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>궁극 스킬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -222,12 +222,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Player_Attack_Nomal_002</t>
-  </si>
-  <si>
-    <t>Player_Attack_Nomal_003</t>
-  </si>
-  <si>
     <t xml:space="preserve">플레이어 기본 공격 1타 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -238,96 +232,397 @@
     <t>플레이어 기본 공격 3타</t>
   </si>
   <si>
-    <t>Player_Attack_Nomal_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Skill_Nomal_003</t>
-  </si>
-  <si>
-    <t>Player_Attack_Special_002</t>
-  </si>
-  <si>
-    <t>Player_Attack_Special_003</t>
-  </si>
-  <si>
     <t>스킬1번 입력 시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">스킬1 구체 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬1 발사 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬1 피격  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬1이 몬스터와 충돌 시 출력 하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">평타 타격 후 스킬1 사용 조건인 구체 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구여진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 입력 시 발사 되는 이펙트 ? </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 피격 시 출력 하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 해제 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시네마틱 카메라와 연계 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster001_Skill_Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">필살기 마법 진 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 리소스에 구분을 위해 (대상)_(리소스 종류)_(명칭)_(번호)를 붙일 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시) PC_Effect_Attack_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Skill_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴1 토끼 인형 돌진 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 패턴1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 출력 시 (패턴2,3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster001_Attack_Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터 축약어 구분 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MM - &gt; 맥 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DM - &gt; 드림캐쳐 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템 획득 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">스킬2번 입력 시 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">스킬1 구체 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬1 발사 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬1 피격  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬 1번 충돌 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬1이 몬스터와 충돌 시 출력 하는 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">평타 타격 후 스킬1 사용 조건인 구체 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구여진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬 입력 시 발사 되는 이펙트 ? </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Hit_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 피격 시 출력 하는 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Change_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">변신 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Change_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">변신 해제 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">시네마틱 카메라와 연계 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Player_Attack_Special_001 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster001_Attack_Effect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster001_Skill_Effect</t>
+    <t xml:space="preserve">스킬 1번 몬스터 피격 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 2번 몬스터 피격 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬2 피격 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 2 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Attack_Special_001 </t>
+  </si>
+  <si>
+    <t>PC_Attack_Special_002</t>
+  </si>
+  <si>
+    <t>PC_Attack_Special_003</t>
+  </si>
+  <si>
+    <t>PC_Hit_001</t>
+  </si>
+  <si>
+    <t>PC_Change_001</t>
+  </si>
+  <si>
+    <t>PC_Change_002</t>
+  </si>
+  <si>
+    <t>PC_Effect_Attack_Nomal_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Attack_Nomal_002</t>
+  </si>
+  <si>
+    <t>PC_Effect_Attack_Nomal_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill_Nomal_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potal_Effect_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Effect_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Ultimate_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">궁극기 사용 시 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill01_Hit_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill01_Idle_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill01_Shot_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerCharacter 이펙트 리스트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster 이펙트 리스트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Boss 이펙트 리스트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신
+공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말
+스킬1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말
+스킬2</t>
+  </si>
+  <si>
+    <t>노말
+스킬3</t>
+  </si>
+  <si>
+    <t>노말 
+공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 공통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Effect_Attack_Special_001 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Attack_Special_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Effect_Skill01_Nomal_idle </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill01_Nomal_Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 변신 공격 1타 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 변신 공격 2타</t>
+  </si>
+  <si>
+    <t>플레이어 변신 공격 3타</t>
+  </si>
+  <si>
+    <t>변신 후 1타 공격 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 후 2타 공격 이펙트</t>
+  </si>
+  <si>
+    <t>변신 후 3타 공격 이펙트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 상태 1타 공격 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 상태 2타 공격 이펙트</t>
+  </si>
+  <si>
+    <t>기본 상태 3타 공격 이펙트</t>
+  </si>
+  <si>
+    <t>PC_Effect_Change_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Change_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 변신 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 변신 해제 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">피격 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Hit_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신
+스킬1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Attack_Special_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Effect_Skill01_Special_idle </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill01_Special_Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게이지 충전으로 인해 생성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터(맥)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01 = 맥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DM01 = 드림캐쳐 몬스터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Attack_Effect</t>
+  </si>
+  <si>
+    <t>MM01_Skill_Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 
+몬스터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ETC 이펙트 리스트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_Potal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_GetItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템 획득 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템 획득 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포탈 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포탈 활성화 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포탈 활성화 시 출력하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구여진 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템 획득 시 출력하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구여진 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomal = 변신 전 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Special = 변신 후 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +672,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -391,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -493,6 +797,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,6 +878,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,6 +915,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -566,8 +929,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -863,32 +1226,32 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -912,17 +1275,1164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A2:T34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="L16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="E8:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J67"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.875" customWidth="1"/>
@@ -947,885 +2457,942 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A13" s="30"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="30"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>36</v>
+      <c r="A29" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
+      <c r="C29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
       <c r="I37" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
       <c r="I38" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
       <c r="I39" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="1"/>
+      <c r="A40" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
       <c r="I40" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A42" s="21"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
       <c r="I43" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>45</v>
+      <c r="A44" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
       <c r="I44" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
       <c r="I46" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
       <c r="I47" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="2"/>
+      <c r="A48" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
       <c r="I48" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -1898,19 +3465,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="170">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,10 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.07.24</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -539,10 +535,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Effect_Skill01_Special_Hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">게이지 충전으로 인해 생성 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -614,15 +606,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ETC_Effect_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Nomal = 변신 전 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Special = 변신 후 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill01_Special_Shoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill01_Special_Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬1 공격 진행 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1번 키 입력 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구여진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬이 날아가면서 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack_Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Skill_Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_Drop_Star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미션 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">떨어지는 별에서 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 바닥 장판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">별 획득 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_Get_Star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_Floor_Star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">별 아래 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.07.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강일구 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 업데이트 및 하단 셀 구분 추가 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,11 +966,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -908,29 +995,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1215,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1226,7 +1307,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -1245,7 +1326,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>27</v>
@@ -1256,9 +1337,15 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -1275,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T34"/>
+  <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1292,7 +1379,7 @@
   <sheetData>
     <row r="2" spans="1:20" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1308,12 +1395,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1322,42 +1409,42 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>107</v>
+      <c r="A5" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -1366,22 +1453,22 @@
         <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -1392,7 +1479,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
@@ -1406,20 +1493,20 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>106</v>
+      <c r="A9" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -1430,18 +1517,18 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -1452,18 +1539,18 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -1474,20 +1561,20 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>102</v>
+      <c r="A12" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1500,16 +1587,16 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -1522,16 +1609,16 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -1542,56 +1629,56 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>103</v>
+      <c r="A15" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
       <c r="L16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
@@ -1603,8 +1690,8 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>104</v>
+      <c r="A17" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -1645,8 +1732,8 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>105</v>
+      <c r="A20" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1675,75 +1762,85 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>127</v>
+      <c r="A23" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E23" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="14"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="21"/>
@@ -1766,9 +1863,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="A28" s="21"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -1780,7 +1875,9 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="26" t="s">
+        <v>104</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
@@ -1803,58 +1900,72 @@
       <c r="I30" s="14"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>150</v>
-      </c>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>151</v>
+      <c r="A34" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="O16:R16"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E15:H15"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1863,7 +1974,7 @@
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1985,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1890,12 +2001,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1905,13 +2016,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="21"/>
@@ -1926,16 +2037,16 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
@@ -1946,10 +2057,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -1970,13 +2081,13 @@
       <c r="J8" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>133</v>
+      <c r="A10" s="18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>134</v>
+      <c r="A11" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +2109,7 @@
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2011,7 +2122,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2019,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>1</v>
@@ -2027,12 +2138,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2042,13 +2153,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="21"/>
@@ -2063,16 +2174,16 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
@@ -2083,10 +2194,10 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
@@ -2138,7 +2249,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2154,12 +2265,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2168,118 +2279,118 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>137</v>
+      <c r="A4" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -2307,20 +2418,20 @@
   <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2328,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>1</v>
@@ -2336,12 +2447,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2350,70 +2461,115 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="1" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="21" t="s">
+        <v>158</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+        <v>157</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2457,12 +2613,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -2471,14 +2627,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -2493,12 +2649,12 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -2513,12 +2669,12 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -2533,38 +2689,38 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -2575,35 +2731,35 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -2615,15 +2771,15 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2635,7 +2791,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2651,7 +2807,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2665,7 +2821,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -2681,9 +2837,9 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -2699,9 +2855,9 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -2717,9 +2873,9 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -2735,16 +2891,16 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -2755,12 +2911,12 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>18</v>
@@ -2773,16 +2929,16 @@
         <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
@@ -2797,7 +2953,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
@@ -2811,13 +2967,13 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="31"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -2828,7 +2984,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -2840,7 +2996,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -2852,7 +3008,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2864,7 +3020,7 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -2876,7 +3032,7 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -2888,7 +3044,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -2902,118 +3058,118 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>35</v>
+      <c r="A29" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
@@ -3021,13 +3177,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="21"/>
@@ -3042,13 +3198,13 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -3089,13 +3245,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="21"/>
@@ -3110,16 +3266,16 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
@@ -3130,10 +3286,10 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
@@ -3155,7 +3311,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -3174,10 +3330,10 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
@@ -3188,10 +3344,10 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
@@ -3216,7 +3372,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="1" t="s">
@@ -3234,7 +3390,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
@@ -3371,39 +3527,71 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="A4:A28"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E28:H28"/>
@@ -3420,46 +3608,14 @@
     <mergeCell ref="E50:H50"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="173">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -695,6 +695,18 @@
   </si>
   <si>
     <t xml:space="preserve">내용 업데이트 및 하단 셀 구분 추가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Floor_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형 형태의 보스 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴1 사용 시 출력 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -969,32 +981,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,13 +1016,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1296,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1395,12 +1407,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1409,7 +1421,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1433,7 +1445,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="2" t="s">
         <v>121</v>
       </c>
@@ -1443,12 +1455,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1457,7 +1469,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="2" t="s">
         <v>120</v>
       </c>
@@ -1467,33 +1479,33 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1505,19 +1517,19 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="1" t="s">
         <v>87</v>
       </c>
@@ -1527,19 +1539,19 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>88</v>
       </c>
@@ -1549,19 +1561,19 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1573,19 +1585,19 @@
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="2" t="s">
         <v>108</v>
       </c>
@@ -1595,19 +1607,19 @@
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2" t="s">
         <v>127</v>
       </c>
@@ -1617,19 +1629,19 @@
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1639,19 +1651,19 @@
         <v>51</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2" t="s">
         <v>110</v>
       </c>
@@ -1680,85 +1692,85 @@
       <c r="N16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
       <c r="S16" s="14" t="s">
         <v>25</v>
       </c>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="14"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="14"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="14"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
@@ -1770,7 +1782,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="21" t="s">
         <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1782,19 +1794,19 @@
       <c r="D23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>149</v>
       </c>
@@ -1816,7 +1828,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2" t="s">
         <v>150</v>
       </c>
@@ -1838,77 +1850,77 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="21" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="14"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="14"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="14"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="14"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="14"/>
       <c r="J31" s="1"/>
     </row>
@@ -1924,21 +1936,12 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
@@ -1955,13 +1958,22 @@
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2001,12 +2013,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2015,7 +2027,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2025,17 +2037,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>134</v>
       </c>
@@ -2053,7 +2065,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2067,14 +2079,14 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2138,12 +2150,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2152,7 +2164,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2162,17 +2174,17 @@
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
         <v>156</v>
       </c>
@@ -2190,7 +2202,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2204,14 +2216,14 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2235,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2265,12 +2277,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2384,9 +2396,15 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -2447,12 +2465,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2461,7 +2479,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
@@ -2483,7 +2501,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>138</v>
       </c>
@@ -2505,7 +2523,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2517,15 +2535,15 @@
       <c r="D7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>163</v>
       </c>
@@ -2535,15 +2553,15 @@
       <c r="D8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>164</v>
       </c>
@@ -2553,10 +2571,10 @@
       <c r="D9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
@@ -2580,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:J35"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2613,12 +2631,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -2627,7 +2645,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2639,10 +2657,10 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
@@ -2659,10 +2677,10 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
@@ -2679,10 +2697,10 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2697,12 +2715,12 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
@@ -2719,12 +2737,12 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
@@ -2761,10 +2779,10 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2781,10 +2799,10 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
@@ -2795,10 +2813,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2811,10 +2829,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
@@ -2827,10 +2845,10 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
@@ -2845,10 +2863,10 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
@@ -2863,10 +2881,10 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
@@ -2881,10 +2899,10 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
@@ -2899,12 +2917,12 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
@@ -2921,10 +2939,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -2943,10 +2961,10 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
@@ -2959,10 +2977,10 @@
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
@@ -2972,12 +2990,12 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
@@ -2988,10 +3006,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
@@ -3000,10 +3018,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
@@ -3012,10 +3030,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
@@ -3024,10 +3042,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
@@ -3036,10 +3054,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
@@ -3048,17 +3066,17 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -3176,7 +3194,7 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3186,17 +3204,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3206,45 +3224,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3254,17 +3272,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3282,7 +3300,7 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3296,37 +3314,37 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
@@ -3340,7 +3358,7 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
@@ -3354,21 +3372,21 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3378,17 +3396,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -3396,132 +3414,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -3552,30 +3570,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E47:H47"/>
@@ -3592,30 +3610,30 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="172">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -452,50 +452,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">PC_Effect_Attack_Special_001 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Effect_Attack_Special_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">PC_Effect_Skill01_Nomal_idle </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PC_Effect_Skill01_Nomal_Hit</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 변신 공격 1타 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 변신 공격 2타</t>
-  </si>
-  <si>
-    <t>플레이어 변신 공격 3타</t>
-  </si>
-  <si>
-    <t>변신 후 1타 공격 이펙트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 후 2타 공격 이펙트</t>
-  </si>
-  <si>
-    <t>변신 후 3타 공격 이펙트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기본 상태 1타 공격 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 상태 2타 공격 이펙트</t>
-  </si>
-  <si>
-    <t>기본 상태 3타 공격 이펙트</t>
   </si>
   <si>
     <t>PC_Effect_Change_002</t>
@@ -527,10 +489,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Effect_Attack_Special_003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">PC_Effect_Skill01_Special_idle </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -707,6 +665,49 @@
   </si>
   <si>
     <t xml:space="preserve">패턴1 사용 시 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Attack_Trail_Nomal_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Attack_Trail_Special_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 상태에서 타격 시 출력 하는 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 상태에서 타격 시 출력하는 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Trail 기능을 활용한 구현 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 트레일 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 상태 공격 입력 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 상태 공격 입력 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강일구 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 이펙트 처리 방식 변경 내용 추가</t>
+  </si>
+  <si>
+    <t>19.08.21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,9 +984,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,6 +1002,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,9 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1308,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1338,7 +1345,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>27</v>
@@ -1350,20 +1357,26 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
   </sheetData>
@@ -1374,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T35"/>
+  <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C34"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1389,12 +1402,12 @@
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1407,12 +1420,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1420,34 +1433,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>59</v>
@@ -1455,12 +1468,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1468,10 +1481,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>60</v>
@@ -1479,501 +1492,392 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="E7" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="14" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E21" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="L16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="A23" s="23"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="A24" s="23"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="A25" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>103</v>
-      </c>
+      <c r="A26" s="23"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="14"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="1"/>
-    </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="1"/>
+      <c r="A30" s="18" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>148</v>
+      <c r="A31" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
+  <mergeCells count="32">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2013,12 +1917,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2027,66 +1931,66 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>130</v>
+      <c r="A5" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2094,12 +1998,12 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2150,12 +2054,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2164,66 +2068,66 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2247,7 +2151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2277,12 +2181,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2291,8 +2195,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>135</v>
+      <c r="A4" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -2303,17 +2207,17 @@
       <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2323,59 +2227,59 @@
       <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -2385,30 +2289,30 @@
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
+        <v>160</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -2449,7 +2353,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2465,12 +2369,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2479,102 +2383,102 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+        <v>130</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+        <v>147</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+        <v>149</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+        <v>153</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
@@ -2631,12 +2535,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -2645,7 +2549,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2657,17 +2561,17 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
@@ -2677,17 +2581,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
@@ -2697,17 +2601,17 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2715,19 +2619,19 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
@@ -2737,19 +2641,19 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
@@ -2759,19 +2663,19 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>79</v>
@@ -2779,17 +2683,17 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -2799,24 +2703,24 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2825,37 +2729,37 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
@@ -2863,17 +2767,17 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
@@ -2881,17 +2785,17 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2899,17 +2803,17 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
@@ -2917,19 +2821,19 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
@@ -2939,10 +2843,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -2951,7 +2855,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -2961,122 +2865,122 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="33"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -3088,17 +2992,17 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3108,59 +3012,59 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
@@ -3170,31 +3074,31 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3204,17 +3108,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3224,46 +3128,46 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
-        <v>130</v>
+      <c r="A40" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>70</v>
@@ -3272,17 +3176,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3290,103 +3194,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3396,17 +3300,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -3414,132 +3318,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -3570,14 +3474,46 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="A4:A28"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E28:H28"/>
@@ -3594,46 +3530,14 @@
     <mergeCell ref="E50:H50"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="181">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -422,11 +422,6 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신
-공격</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -443,11 +438,6 @@
 스킬3</t>
   </si>
   <si>
-    <t>노말 
-공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어 공통</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -708,6 +698,52 @@
   </si>
   <si>
     <t>19.08.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말_트레일 
+공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신_트레일
+공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Mssing_Nomal_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Mssing_Special_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말 회피 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회피 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 시 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 시 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 상태에서 회피 시 출력 하는 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 상태에서 회피 시 출력 하는 이펙트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,29 +1026,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1021,12 +1069,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1315,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1345,7 +1387,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>27</v>
@@ -1357,25 +1399,25 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1387,14 +1429,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J31"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
@@ -1420,12 +1463,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1434,33 +1477,33 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>106</v>
+      <c r="A5" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>59</v>
@@ -1468,12 +1511,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="E6" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1482,9 +1525,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>60</v>
@@ -1492,26 +1535,26 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
@@ -1519,365 +1562,414 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>163</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>107</v>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>175</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>180</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="14" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="14"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="A16" s="26"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="14"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="14"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="14"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="E21" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>54</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="14" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="14"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="14"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="A25" s="26"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="14"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>136</v>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A25:A27"/>
+  <mergeCells count="35">
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E14:H14"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1917,12 +2009,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1931,66 +2023,66 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>118</v>
+      <c r="A5" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
@@ -1998,12 +2090,12 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2054,12 +2146,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2068,66 +2160,66 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2181,12 +2273,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2195,8 +2287,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>123</v>
+      <c r="A4" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -2207,17 +2299,17 @@
       <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2227,59 +2319,59 @@
       <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -2289,30 +2381,30 @@
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -2353,7 +2445,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2369,12 +2461,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2383,102 +2475,102 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="E6" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="1" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>146</v>
+      <c r="A7" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+        <v>147</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+        <v>151</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
@@ -2535,12 +2627,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -2549,7 +2641,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2561,17 +2653,17 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
@@ -2581,17 +2673,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
@@ -2601,17 +2693,17 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2619,19 +2711,19 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
@@ -2641,19 +2733,19 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
@@ -2663,19 +2755,19 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>79</v>
@@ -2683,17 +2775,17 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -2703,24 +2795,24 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2729,37 +2821,37 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
@@ -2767,17 +2859,17 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
@@ -2785,17 +2877,17 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2803,17 +2895,17 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
@@ -2821,19 +2913,19 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
@@ -2843,10 +2935,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -2855,7 +2947,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -2865,122 +2957,122 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="37"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -2992,17 +3084,17 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,59 +3104,59 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
@@ -3074,31 +3166,31 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3108,17 +3200,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3128,46 +3220,46 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>118</v>
+      <c r="A40" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>70</v>
@@ -3176,17 +3268,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3194,103 +3286,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3300,17 +3392,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -3318,132 +3410,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -3474,30 +3566,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E47:H47"/>
@@ -3514,30 +3606,30 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="193">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -708,6 +708,90 @@
   </si>
   <si>
     <t>19.08.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Effect_Skill02_Nomal_idle </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill02_Nomal_Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 반원 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill03_Nomal_Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill03_Nomal_Start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill03_Nomal_loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Skill03_Nomal_end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3 시작 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3 반복 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3 끝 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 피격 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3 피격 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 2번 몬스터 피격 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 3번 몬스터 피격 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 3번 차지 상태일때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반원의 이펙트로 시작후 줄어들며 몬스터를 끌어오는 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2번 안에 있는 대상들이 끌려올때 나오는 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬3번을 시작하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번이 유지될때 나오는 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번이 끝날때 나오는 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번에 공격달할시 나오는 이펙트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,29 +1074,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1021,12 +1114,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1315,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1389,16 +1476,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1420,12 +1508,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1446,12 +1534,12 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
@@ -1468,12 +1556,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1492,12 +1580,12 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="14" t="s">
         <v>25</v>
       </c>
@@ -1508,10 +1596,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
@@ -1530,16 +1618,16 @@
       <c r="D9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1556,19 +1644,19 @@
       <c r="D10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1578,19 +1666,19 @@
         <v>51</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="2" t="s">
         <v>108</v>
       </c>
@@ -1600,99 +1688,149 @@
       <c r="D12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="14"/>
+      <c r="E15" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="14"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="14"/>
+      <c r="E17" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="24" t="s">
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1704,19 +1842,19 @@
       <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="2" t="s">
         <v>137</v>
       </c>
@@ -1726,19 +1864,19 @@
       <c r="D20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="20" t="s">
         <v>141</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="2" t="s">
         <v>138</v>
       </c>
@@ -1748,89 +1886,89 @@
       <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="24" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="A25" s="25"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="14"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
@@ -1846,38 +1984,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E12:H12"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1890,7 +2028,7 @@
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1917,12 +2055,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1931,7 +2069,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1941,17 +2079,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -1959,38 +2097,38 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2025,7 +2163,7 @@
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2054,12 +2192,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2206,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2078,17 +2216,17 @@
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="2" t="s">
         <v>144</v>
       </c>
@@ -2096,38 +2234,38 @@
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2181,12 +2319,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2195,7 +2333,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="35" t="s">
         <v>123</v>
       </c>
       <c r="B4" t="s">
@@ -2207,17 +2345,17 @@
       <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2227,59 +2365,59 @@
       <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -2289,17 +2427,17 @@
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="2" t="s">
         <v>158</v>
       </c>
@@ -2309,10 +2447,10 @@
       <c r="D10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -2369,12 +2507,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2383,7 +2521,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="1" t="s">
         <v>125</v>
       </c>
@@ -2393,19 +2531,19 @@
       <c r="D5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>126</v>
       </c>
@@ -2415,19 +2553,19 @@
       <c r="D6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="1" t="s">
         <v>134</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2439,15 +2577,15 @@
       <c r="D7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="1" t="s">
         <v>151</v>
       </c>
@@ -2457,15 +2595,15 @@
       <c r="D8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="1" t="s">
         <v>152</v>
       </c>
@@ -2475,10 +2613,10 @@
       <c r="D9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
@@ -2502,7 +2640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -2535,12 +2673,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -2549,7 +2687,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2561,17 +2699,17 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
@@ -2581,17 +2719,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
@@ -2601,17 +2739,17 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2619,19 +2757,19 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
@@ -2641,19 +2779,19 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
@@ -2663,19 +2801,19 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>79</v>
@@ -2683,17 +2821,17 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -2703,24 +2841,24 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2729,37 +2867,37 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
@@ -2767,17 +2905,17 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
@@ -2785,17 +2923,17 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2803,17 +2941,17 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
@@ -2821,19 +2959,19 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
@@ -2843,10 +2981,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -2855,7 +2993,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -2865,122 +3003,122 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="36"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -2992,17 +3130,17 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,59 +3150,59 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
@@ -3074,31 +3212,31 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3108,17 +3246,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3128,45 +3266,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="25" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3176,17 +3314,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3194,103 +3332,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3300,17 +3438,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -3318,132 +3456,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -3474,30 +3612,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E47:H47"/>
@@ -3514,30 +3652,30 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
     <sheet name="플레이어 " sheetId="4" r:id="rId2"/>
-    <sheet name="몬스터(맥)" sheetId="5" r:id="rId3"/>
-    <sheet name="몬스터(드림캐쳐)" sheetId="6" r:id="rId4"/>
-    <sheet name="보스" sheetId="2" r:id="rId5"/>
-    <sheet name="환경 이펙트 " sheetId="7" r:id="rId6"/>
-    <sheet name="전체 리스트 (최신화 안됨)" sheetId="1" r:id="rId7"/>
+    <sheet name="UI이펙트" sheetId="8" r:id="rId3"/>
+    <sheet name="몬스터(맥)" sheetId="5" r:id="rId4"/>
+    <sheet name="몬스터(드림캐쳐)" sheetId="6" r:id="rId5"/>
+    <sheet name="보스" sheetId="2" r:id="rId6"/>
+    <sheet name="환경 이펙트 " sheetId="7" r:id="rId7"/>
+    <sheet name="전체 리스트 (최신화 안됨)" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="209">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -524,10 +525,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ETC_Effect_Potal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ETC_Effect_GetItem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -792,6 +789,74 @@
   </si>
   <si>
     <t>스킬3번에 공격달할시 나오는 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UI 이펙트 리스트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp 바</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Missing_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Missing_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 종료 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 종료 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 입력 시 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 종료 위치에 출력\</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_Potal_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_Potal_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 포탈 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스미션 최종 () 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 포탈 활성화 시 출력하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">별 받기 미션 출력 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1001,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,6 +1145,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,24 +1190,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,6 +1206,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1432,7 +1524,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>27</v>
@@ -1444,25 +1536,25 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1474,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J31"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1508,12 +1600,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1522,7 +1614,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1534,19 +1626,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1556,12 +1648,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1570,452 +1662,483 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="14" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E11" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="25" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="14" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="2" t="s">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="26" t="s">
+      <c r="E19" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E20" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="14" t="s">
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="2" t="s">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="41"/>
+      <c r="B21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E22" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
-        <v>104</v>
-      </c>
+      <c r="A24" s="35"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="41" t="s">
+        <v>104</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="23"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="14"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>135</v>
-      </c>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A19:A21"/>
+  <mergeCells count="33">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E12:H12"/>
     <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
     <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="E9:H9"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E28:H28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2024,6 +2147,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B11:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
@@ -2055,12 +2538,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2069,7 +2552,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="35" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2079,17 +2562,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -2097,38 +2580,38 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2158,7 +2641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J7"/>
   <sheetViews>
@@ -2192,12 +2675,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2206,66 +2689,66 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2285,7 +2768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J10"/>
   <sheetViews>
@@ -2319,12 +2802,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2333,7 +2816,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B4" t="s">
@@ -2345,17 +2828,17 @@
       <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2365,59 +2848,59 @@
       <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -2427,30 +2910,30 @@
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -2473,12 +2956,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J9"/>
+  <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2507,12 +2990,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2521,127 +3004,156 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E8" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="1"/>
     </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2673,12 +3185,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -2687,7 +3199,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2699,17 +3211,17 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
@@ -2719,17 +3231,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
@@ -2739,17 +3251,17 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2757,19 +3269,19 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
@@ -2779,19 +3291,19 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
@@ -2801,19 +3313,19 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>79</v>
@@ -2821,17 +3333,17 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -2841,24 +3353,24 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2867,37 +3379,37 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
@@ -2905,17 +3417,17 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
@@ -2923,17 +3435,17 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2941,17 +3453,17 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
@@ -2959,19 +3471,19 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
@@ -2981,10 +3493,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -2993,7 +3505,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -3003,122 +3515,122 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="44"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -3130,17 +3642,17 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3150,59 +3662,59 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
@@ -3212,31 +3724,31 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3246,17 +3758,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3266,45 +3778,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="35" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3314,17 +3826,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3332,103 +3844,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3438,17 +3950,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -3456,132 +3968,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -3612,14 +4124,46 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="A4:A28"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E28:H28"/>
@@ -3636,46 +4180,14 @@
     <mergeCell ref="E50:H50"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="211">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -857,6 +857,14 @@
   </si>
   <si>
     <t xml:space="preserve">별 받기 미션 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회피 이펙트 추가 / 포탈 이펙트 내용 변경 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1066,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,6 +1171,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1172,30 +1204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1205,10 +1216,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1492,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1557,6 +1568,18 @@
         <v>169</v>
       </c>
       <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1600,12 +1623,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1614,7 +1637,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="40" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1626,19 +1649,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1648,12 +1671,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1685,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
@@ -1672,19 +1695,19 @@
       <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="2" t="s">
         <v>195</v>
       </c>
@@ -1694,19 +1717,19 @@
       <c r="D8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="2" t="s">
         <v>196</v>
       </c>
@@ -1716,12 +1739,12 @@
       <c r="D9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1740,16 +1763,16 @@
       <c r="D10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="39" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1766,19 +1789,19 @@
       <c r="D11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="37"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1788,19 +1811,19 @@
         <v>51</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2" t="s">
         <v>108</v>
       </c>
@@ -1810,19 +1833,19 @@
       <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1832,19 +1855,19 @@
         <v>173</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="2" t="s">
         <v>172</v>
       </c>
@@ -1854,19 +1877,19 @@
       <c r="D15" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1876,19 +1899,19 @@
         <v>178</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="2" t="s">
         <v>176</v>
       </c>
@@ -1898,19 +1921,19 @@
       <c r="D17" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="2" t="s">
         <v>177</v>
       </c>
@@ -1918,19 +1941,19 @@
         <v>180</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="2" t="s">
         <v>174</v>
       </c>
@@ -1940,19 +1963,19 @@
       <c r="D19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="33" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1964,19 +1987,19 @@
       <c r="D20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="2" t="s">
         <v>136</v>
       </c>
@@ -1986,19 +2009,19 @@
       <c r="D21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="20" t="s">
         <v>140</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2" t="s">
         <v>137</v>
       </c>
@@ -2008,89 +2031,89 @@
       <c r="D22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="33" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="14"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="23"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="14"/>
       <c r="J28" s="1"/>
     </row>
@@ -2106,23 +2129,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E14:H14"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="J10:J11"/>
@@ -2139,6 +2145,23 @@
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2181,12 +2204,12 @@
       <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
@@ -2201,10 +2224,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="25"/>
       <c r="J5" s="1"/>
     </row>
@@ -2213,10 +2236,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="25"/>
       <c r="J6" s="1"/>
     </row>
@@ -2227,10 +2250,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
     </row>
@@ -2239,10 +2262,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
     </row>
@@ -2251,10 +2274,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="25"/>
       <c r="J9" s="3"/>
     </row>
@@ -2263,10 +2286,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="25"/>
       <c r="J10" s="3"/>
     </row>
@@ -2275,10 +2298,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="25"/>
       <c r="J11" s="1"/>
     </row>
@@ -2287,10 +2310,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
     </row>
@@ -2299,10 +2322,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="25"/>
       <c r="J13" s="1"/>
     </row>
@@ -2311,10 +2334,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
     </row>
@@ -2323,10 +2346,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="25"/>
       <c r="J15" s="1"/>
     </row>
@@ -2335,10 +2358,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
     </row>
@@ -2347,10 +2370,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="25"/>
       <c r="J17" s="1"/>
     </row>
@@ -2359,10 +2382,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="25"/>
       <c r="J18" s="1"/>
     </row>
@@ -2371,10 +2394,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="25"/>
       <c r="J19" s="1"/>
     </row>
@@ -2383,10 +2406,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="25"/>
       <c r="J20" s="1"/>
     </row>
@@ -2395,10 +2418,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="25"/>
       <c r="J21" s="1"/>
     </row>
@@ -2407,10 +2430,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="25"/>
       <c r="J22" s="1"/>
     </row>
@@ -2419,10 +2442,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="25"/>
       <c r="J23" s="1"/>
     </row>
@@ -2431,10 +2454,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="25"/>
       <c r="J24" s="1"/>
     </row>
@@ -2443,10 +2466,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="25"/>
       <c r="J25" s="1"/>
     </row>
@@ -2455,10 +2478,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1"/>
     </row>
@@ -2467,25 +2490,15 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="25"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2500,6 +2513,16 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2538,12 +2561,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2552,7 +2575,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2562,17 +2585,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -2580,38 +2603,38 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2675,12 +2698,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2689,7 +2712,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2699,17 +2722,17 @@
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2" t="s">
         <v>143</v>
       </c>
@@ -2717,38 +2740,38 @@
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2802,12 +2825,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2816,7 +2839,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>123</v>
       </c>
       <c r="B4" t="s">
@@ -2828,17 +2851,17 @@
       <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2848,59 +2871,59 @@
       <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -2910,17 +2933,17 @@
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="2" t="s">
         <v>157</v>
       </c>
@@ -2930,10 +2953,10 @@
       <c r="D10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -2960,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
@@ -2990,12 +3013,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -3004,7 +3027,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="1" t="s">
         <v>203</v>
       </c>
@@ -3014,12 +3037,12 @@
       <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="30" t="s">
         <v>131</v>
       </c>
@@ -3036,19 +3059,19 @@
       <c r="D6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="30" t="s">
         <v>131</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
@@ -3058,19 +3081,19 @@
       <c r="D7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="30" t="s">
         <v>133</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3082,17 +3105,17 @@
       <c r="D8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="30"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="1" t="s">
         <v>150</v>
       </c>
@@ -3102,17 +3125,17 @@
       <c r="D9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="30"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
@@ -3122,12 +3145,12 @@
       <c r="D10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="30"/>
       <c r="J10" s="1"/>
     </row>
@@ -3185,12 +3208,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -3199,7 +3222,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3211,17 +3234,17 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
@@ -3231,17 +3254,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
@@ -3251,17 +3274,17 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
@@ -3269,19 +3292,19 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
@@ -3291,19 +3314,19 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
@@ -3313,19 +3336,19 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>79</v>
@@ -3333,17 +3356,17 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -3353,24 +3376,24 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3379,37 +3402,37 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
@@ -3417,17 +3440,17 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
@@ -3435,17 +3458,17 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
@@ -3453,17 +3476,17 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
@@ -3471,19 +3494,19 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
@@ -3493,10 +3516,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -3505,7 +3528,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -3515,122 +3538,122 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="48" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -3642,17 +3665,17 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3662,59 +3685,59 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
@@ -3724,31 +3747,31 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3758,17 +3781,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3778,45 +3801,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="34" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3826,17 +3849,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3844,103 +3867,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="40"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3950,17 +3973,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -3968,132 +3991,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="35"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -4124,30 +4147,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E47:H47"/>
@@ -4164,30 +4187,30 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -1174,37 +1174,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1505,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1623,12 +1623,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1649,19 +1649,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1671,12 +1671,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
@@ -1695,19 +1695,19 @@
       <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2" t="s">
         <v>195</v>
       </c>
@@ -1717,19 +1717,19 @@
       <c r="D8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="2" t="s">
         <v>196</v>
       </c>
@@ -1739,12 +1739,12 @@
       <c r="D9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1763,16 +1763,16 @@
       <c r="D10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="37" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1789,19 +1789,19 @@
       <c r="D11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="43"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="42" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1811,19 +1811,19 @@
         <v>51</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="2" t="s">
         <v>108</v>
       </c>
@@ -1833,19 +1833,19 @@
       <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="42" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1855,19 +1855,19 @@
         <v>173</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="2" t="s">
         <v>172</v>
       </c>
@@ -1877,19 +1877,19 @@
       <c r="D15" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="42" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1899,19 +1899,19 @@
         <v>178</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>176</v>
       </c>
@@ -1921,19 +1921,19 @@
       <c r="D17" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="2" t="s">
         <v>177</v>
       </c>
@@ -1941,19 +1941,19 @@
         <v>180</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="2" t="s">
         <v>174</v>
       </c>
@@ -1963,19 +1963,19 @@
       <c r="D19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="42" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1987,19 +1987,19 @@
       <c r="D20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="2" t="s">
         <v>136</v>
       </c>
@@ -2009,19 +2009,19 @@
       <c r="D21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="20" t="s">
         <v>140</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="2" t="s">
         <v>137</v>
       </c>
@@ -2031,89 +2031,89 @@
       <c r="D22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="42" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="42" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="14"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="23"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="14"/>
       <c r="J28" s="1"/>
     </row>
@@ -2129,6 +2129,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E14:H14"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="J10:J11"/>
@@ -2145,23 +2162,6 @@
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,12 +2204,12 @@
       <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
@@ -2224,10 +2224,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="25"/>
       <c r="J5" s="1"/>
     </row>
@@ -2236,10 +2236,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="25"/>
       <c r="J6" s="1"/>
     </row>
@@ -2250,10 +2250,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
     </row>
@@ -2262,10 +2262,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
     </row>
@@ -2274,10 +2274,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="25"/>
       <c r="J9" s="3"/>
     </row>
@@ -2286,10 +2286,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="25"/>
       <c r="J10" s="3"/>
     </row>
@@ -2298,10 +2298,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="25"/>
       <c r="J11" s="1"/>
     </row>
@@ -2310,10 +2310,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
     </row>
@@ -2322,10 +2322,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="25"/>
       <c r="J13" s="1"/>
     </row>
@@ -2334,10 +2334,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
     </row>
@@ -2346,10 +2346,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="25"/>
       <c r="J15" s="1"/>
     </row>
@@ -2358,10 +2358,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
     </row>
@@ -2370,10 +2370,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="25"/>
       <c r="J17" s="1"/>
     </row>
@@ -2382,10 +2382,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="25"/>
       <c r="J18" s="1"/>
     </row>
@@ -2394,10 +2394,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="25"/>
       <c r="J19" s="1"/>
     </row>
@@ -2406,10 +2406,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="25"/>
       <c r="J20" s="1"/>
     </row>
@@ -2418,10 +2418,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="25"/>
       <c r="J21" s="1"/>
     </row>
@@ -2430,10 +2430,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="25"/>
       <c r="J22" s="1"/>
     </row>
@@ -2442,10 +2442,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="25"/>
       <c r="J23" s="1"/>
     </row>
@@ -2454,10 +2454,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="25"/>
       <c r="J24" s="1"/>
     </row>
@@ -2466,10 +2466,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="25"/>
       <c r="J25" s="1"/>
     </row>
@@ -2478,10 +2478,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1"/>
     </row>
@@ -2490,15 +2490,25 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="25"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2513,16 +2523,6 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2561,12 +2561,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2585,17 +2585,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -2603,38 +2603,38 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2698,12 +2698,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2712,7 +2712,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2722,17 +2722,17 @@
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="2" t="s">
         <v>143</v>
       </c>
@@ -2740,38 +2740,38 @@
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2825,12 +2825,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2851,10 +2851,10 @@
       <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
@@ -2871,10 +2871,10 @@
       <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
@@ -2885,10 +2885,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
@@ -2899,10 +2899,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
@@ -2913,10 +2913,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
@@ -2933,10 +2933,10 @@
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
@@ -2953,10 +2953,10 @@
       <c r="D10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -3013,12 +3013,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="1" t="s">
         <v>203</v>
       </c>
@@ -3037,12 +3037,12 @@
       <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="30" t="s">
         <v>131</v>
       </c>
@@ -3059,19 +3059,19 @@
       <c r="D6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="30" t="s">
         <v>131</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
@@ -3081,19 +3081,19 @@
       <c r="D7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="30" t="s">
         <v>133</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3105,17 +3105,17 @@
       <c r="D8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="30"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="1" t="s">
         <v>150</v>
       </c>
@@ -3125,17 +3125,17 @@
       <c r="D9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="30"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
@@ -3145,12 +3145,12 @@
       <c r="D10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="30"/>
       <c r="J10" s="1"/>
     </row>
@@ -3208,12 +3208,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -3234,10 +3234,10 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
@@ -3254,10 +3254,10 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
@@ -3274,10 +3274,10 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
@@ -3292,12 +3292,12 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
@@ -3314,12 +3314,12 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
@@ -3336,12 +3336,12 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
@@ -3356,10 +3356,10 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
@@ -3376,10 +3376,10 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
@@ -3390,10 +3390,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3406,10 +3406,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
@@ -3422,10 +3422,10 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3440,10 +3440,10 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3458,10 +3458,10 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
@@ -3476,10 +3476,10 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
@@ -3494,12 +3494,12 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
@@ -3516,10 +3516,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -3538,10 +3538,10 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
@@ -3554,10 +3554,10 @@
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
@@ -3567,12 +3567,12 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
@@ -3583,10 +3583,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
@@ -3595,10 +3595,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
@@ -3607,10 +3607,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
@@ -3619,10 +3619,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
@@ -3631,10 +3631,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
@@ -3643,10 +3643,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
@@ -3665,10 +3665,10 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
@@ -3685,10 +3685,10 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
@@ -3699,10 +3699,10 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
@@ -3713,10 +3713,10 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
@@ -3727,10 +3727,10 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
@@ -3747,10 +3747,10 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
@@ -3761,17 +3761,17 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3781,17 +3781,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3801,45 +3801,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="36" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3849,17 +3849,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3867,103 +3867,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="34"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="34"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="34"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3973,17 +3973,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -3991,132 +3991,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="34"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -4147,14 +4147,46 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="A4:A28"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E28:H28"/>
@@ -4171,46 +4203,14 @@
     <mergeCell ref="E50:H50"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="225">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -605,10 +605,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">미션 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">떨어지는 별에서 출력 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -865,6 +861,68 @@
   </si>
   <si>
     <t xml:space="preserve">회피 이펙트 추가 / 포탈 이펙트 내용 변경 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션
+별받기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미션
+방어 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_Pillar_Star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_Pillar_Distroy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마우스 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Effect_Mouse_Star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥 별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥 별 파괴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방어 미션 기둥에서 지속 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미션 실패 시 별 파괴 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마우스에서 날리는 별가루 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마우스 이동 시 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기둥 별에서 나오는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미션 실패시 오브젝트 파괴 하는 형태의 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마우스 이동 떄 마다 출력하는 별가루 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1074,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,6 +1232,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1183,28 +1268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1535,7 +1599,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>27</v>
@@ -1547,37 +1611,37 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>209</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>210</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -1591,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1623,12 +1687,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1637,7 +1701,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1649,19 +1713,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1685,7 +1749,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
@@ -1695,30 +1759,30 @@
       <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
@@ -1729,18 +1793,18 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
@@ -1755,16 +1819,16 @@
         <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E10" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -1772,8 +1836,8 @@
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>164</v>
+      <c r="J10" s="41" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1781,16 +1845,16 @@
         <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
@@ -1798,10 +1862,10 @@
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="35" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1833,30 +1897,30 @@
       <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="35" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -1869,16 +1933,16 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -1889,18 +1953,18 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
@@ -1913,16 +1977,16 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
@@ -1935,18 +1999,18 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
+      <c r="E18" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="23" t="s">
         <v>25</v>
       </c>
@@ -1955,27 +2019,27 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
+        <v>183</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="35" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1999,7 +2063,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="2" t="s">
         <v>136</v>
       </c>
@@ -2009,12 +2073,12 @@
       <c r="D21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="20" t="s">
         <v>140</v>
       </c>
@@ -2031,19 +2095,19 @@
       <c r="D22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="35" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="2"/>
@@ -2068,7 +2132,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="2"/>
@@ -2098,10 +2162,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="23"/>
       <c r="J27" s="1"/>
     </row>
@@ -2129,23 +2193,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E14:H14"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="J10:J11"/>
@@ -2162,6 +2209,23 @@
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,7 +2252,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2204,12 +2268,12 @@
       <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
@@ -2219,15 +2283,15 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="25"/>
       <c r="J5" s="1"/>
     </row>
@@ -2236,24 +2300,24 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="25"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
     </row>
@@ -2262,10 +2326,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
     </row>
@@ -2274,10 +2338,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="25"/>
       <c r="J9" s="3"/>
     </row>
@@ -2286,10 +2350,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="25"/>
       <c r="J10" s="3"/>
     </row>
@@ -2298,10 +2362,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="25"/>
       <c r="J11" s="1"/>
     </row>
@@ -2310,10 +2374,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
     </row>
@@ -2322,10 +2386,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="25"/>
       <c r="J13" s="1"/>
     </row>
@@ -2334,10 +2398,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
     </row>
@@ -2346,10 +2410,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="25"/>
       <c r="J15" s="1"/>
     </row>
@@ -2358,10 +2422,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
     </row>
@@ -2370,10 +2434,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="25"/>
       <c r="J17" s="1"/>
     </row>
@@ -2382,10 +2446,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="25"/>
       <c r="J18" s="1"/>
     </row>
@@ -2394,10 +2458,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="25"/>
       <c r="J19" s="1"/>
     </row>
@@ -2406,10 +2470,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="25"/>
       <c r="J20" s="1"/>
     </row>
@@ -2418,10 +2482,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="25"/>
       <c r="J21" s="1"/>
     </row>
@@ -2430,10 +2494,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="25"/>
       <c r="J22" s="1"/>
     </row>
@@ -2442,10 +2506,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="25"/>
       <c r="J23" s="1"/>
     </row>
@@ -2454,10 +2518,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="25"/>
       <c r="J24" s="1"/>
     </row>
@@ -2466,10 +2530,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="25"/>
       <c r="J25" s="1"/>
     </row>
@@ -2478,10 +2542,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1"/>
     </row>
@@ -2490,25 +2554,15 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="25"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2523,6 +2577,16 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2561,12 +2625,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2603,10 +2667,10 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
@@ -2617,10 +2681,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2698,12 +2762,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2740,10 +2804,10 @@
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
@@ -2754,10 +2818,10 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
@@ -2796,7 +2860,7 @@
   <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2825,12 +2889,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2839,7 +2903,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B4" t="s">
@@ -2851,17 +2915,17 @@
       <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -2871,59 +2935,59 @@
       <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -2933,30 +2997,30 @@
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -2981,16 +3045,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:H10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.75" customWidth="1"/>
   </cols>
@@ -3013,12 +3077,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -3027,9 +3091,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>128</v>
@@ -3037,41 +3101,41 @@
       <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="30" t="s">
         <v>131</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="30" t="s">
         <v>131</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
@@ -3081,81 +3145,161 @@
       <c r="D7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="30" t="s">
         <v>133</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>145</v>
+      <c r="A8" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="34" t="s">
+        <v>131</v>
+      </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="34" t="s">
+        <v>131</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E10" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="34" t="s">
+        <v>131</v>
+      </c>
       <c r="J10" s="1"/>
     </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E7:H7"/>
@@ -3208,12 +3352,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -3222,7 +3366,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3244,7 +3388,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
@@ -3264,7 +3408,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
@@ -3284,7 +3428,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
@@ -3304,7 +3448,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
@@ -3326,7 +3470,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
@@ -3336,19 +3480,19 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>79</v>
@@ -3366,7 +3510,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -3386,7 +3530,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3402,7 +3546,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3416,7 +3560,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -3432,7 +3576,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
@@ -3450,7 +3594,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
@@ -3468,7 +3612,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
@@ -3486,7 +3630,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
@@ -3506,7 +3650,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
@@ -3528,7 +3672,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -3548,7 +3692,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
@@ -3562,7 +3706,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
@@ -3579,7 +3723,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
@@ -3591,7 +3735,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -3603,7 +3747,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -3615,7 +3759,7 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -3627,7 +3771,7 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -3639,7 +3783,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
@@ -3653,7 +3797,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="50" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -3665,17 +3809,17 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3685,59 +3829,59 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
@@ -3747,24 +3891,24 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
@@ -3867,10 +4011,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
@@ -3881,10 +4025,10 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
@@ -3925,10 +4069,10 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="41"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
@@ -3939,10 +4083,10 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="41"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
@@ -4147,30 +4291,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E47:H47"/>
@@ -4187,30 +4331,30 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="221">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -724,10 +724,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Effect_Skill03_Nomal_loop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PC_Effect_Skill03_Nomal_end</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -736,10 +732,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬3 반복 이펙트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬3 끝 이펙트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -760,10 +752,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 3번 차지 상태일때</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>반원의 이펙트로 시작후 줄어들며 몬스터를 끌어오는 이펙트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -773,10 +761,6 @@
   </si>
   <si>
     <t xml:space="preserve">스킬3번을 시작하는 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3번이 유지될때 나오는 이펙트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1238,37 +1222,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1635,13 +1619,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>154</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -1653,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J32"/>
+  <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,12 +1671,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1685,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="35" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1713,19 +1697,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1735,12 +1719,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1733,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
@@ -1759,56 +1743,56 @@
       <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1827,16 +1811,16 @@
       <c r="D10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="39" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1853,19 +1837,19 @@
       <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="44" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1875,19 +1859,19 @@
         <v>51</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="2" t="s">
         <v>108</v>
       </c>
@@ -1897,19 +1881,19 @@
       <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="44" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1919,296 +1903,264 @@
         <v>172</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="E14" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="E15" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="44" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="E16" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+        <v>177</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="D18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+      <c r="A19" s="44" t="s">
+        <v>115</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>181</v>
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>190</v>
+        <v>117</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="23" t="s">
-        <v>25</v>
+      <c r="H19" s="38"/>
+      <c r="I19" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
-        <v>115</v>
-      </c>
+      <c r="A20" s="44"/>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="14" t="s">
-        <v>56</v>
+        <v>139</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="20" t="s">
-        <v>140</v>
+        <v>76</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>54</v>
-      </c>
+      <c r="A22" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>103</v>
-      </c>
+      <c r="A23" s="38"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+      <c r="A24" s="44" t="s">
+        <v>104</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>104</v>
-      </c>
+      <c r="A25" s="38"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="14"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="37"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="23"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="1"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="E27:H27"/>
+  <mergeCells count="32">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E23:H23"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E12:H12"/>
@@ -2220,12 +2172,21 @@
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="E20:H20"/>
     <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E27:H27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2252,7 +2213,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2268,12 +2229,12 @@
       <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
@@ -2283,15 +2244,15 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="25"/>
       <c r="J5" s="1"/>
     </row>
@@ -2300,24 +2261,24 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="25"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
     </row>
@@ -2326,10 +2287,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
     </row>
@@ -2338,10 +2299,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="25"/>
       <c r="J9" s="3"/>
     </row>
@@ -2350,10 +2311,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="25"/>
       <c r="J10" s="3"/>
     </row>
@@ -2362,10 +2323,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="25"/>
       <c r="J11" s="1"/>
     </row>
@@ -2374,10 +2335,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
     </row>
@@ -2386,10 +2347,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="25"/>
       <c r="J13" s="1"/>
     </row>
@@ -2398,10 +2359,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
     </row>
@@ -2410,10 +2371,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="25"/>
       <c r="J15" s="1"/>
     </row>
@@ -2422,10 +2383,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
     </row>
@@ -2434,10 +2395,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="25"/>
       <c r="J17" s="1"/>
     </row>
@@ -2446,10 +2407,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="25"/>
       <c r="J18" s="1"/>
     </row>
@@ -2458,10 +2419,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="25"/>
       <c r="J19" s="1"/>
     </row>
@@ -2470,10 +2431,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="25"/>
       <c r="J20" s="1"/>
     </row>
@@ -2482,10 +2443,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="25"/>
       <c r="J21" s="1"/>
     </row>
@@ -2494,10 +2455,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="25"/>
       <c r="J22" s="1"/>
     </row>
@@ -2506,10 +2467,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="25"/>
       <c r="J23" s="1"/>
     </row>
@@ -2518,10 +2479,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="25"/>
       <c r="J24" s="1"/>
     </row>
@@ -2530,10 +2491,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="25"/>
       <c r="J25" s="1"/>
     </row>
@@ -2542,10 +2503,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1"/>
     </row>
@@ -2554,15 +2515,25 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="25"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2577,16 +2548,6 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2625,12 +2586,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2639,7 +2600,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2649,17 +2610,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -2667,38 +2628,38 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2762,12 +2723,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2776,7 +2737,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2786,17 +2747,17 @@
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="2" t="s">
         <v>143</v>
       </c>
@@ -2804,38 +2765,38 @@
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2889,12 +2850,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2915,10 +2876,10 @@
       <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
@@ -2935,10 +2896,10 @@
       <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
@@ -2949,10 +2910,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
@@ -2963,10 +2924,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
@@ -2977,10 +2938,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
@@ -2997,10 +2958,10 @@
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
@@ -3017,10 +2978,10 @@
       <c r="D10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -3047,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3077,12 +3038,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -3091,9 +3052,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>128</v>
@@ -3101,12 +3062,12 @@
       <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="30" t="s">
         <v>131</v>
       </c>
@@ -3115,27 +3076,27 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="49"/>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+        <v>201</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="30" t="s">
         <v>131</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
@@ -3145,20 +3106,20 @@
       <c r="D7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="30" t="s">
         <v>133</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>210</v>
+      <c r="A8" s="44" t="s">
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>144</v>
@@ -3169,19 +3130,19 @@
       <c r="D8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="E8" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="34" t="s">
         <v>131</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="1" t="s">
         <v>149</v>
       </c>
@@ -3191,19 +3152,19 @@
       <c r="D9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="E9" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="34" t="s">
         <v>131</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="1" t="s">
         <v>150</v>
       </c>
@@ -3213,58 +3174,58 @@
       <c r="D10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="E10" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="34" t="s">
         <v>131</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>211</v>
+      <c r="A11" s="44" t="s">
+        <v>207</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="34" t="s">
         <v>131</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="34" t="s">
         <v>131</v>
       </c>
@@ -3272,23 +3233,23 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="34" t="s">
         <v>131</v>
       </c>
@@ -3352,12 +3313,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -3378,10 +3339,10 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
@@ -3398,10 +3359,10 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
@@ -3418,10 +3379,10 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
@@ -3436,12 +3397,12 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
@@ -3458,12 +3419,12 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
@@ -3480,12 +3441,12 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
@@ -3500,10 +3461,10 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
@@ -3520,10 +3481,10 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
@@ -3534,10 +3495,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3550,10 +3511,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
@@ -3566,10 +3527,10 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3584,10 +3545,10 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3602,10 +3563,10 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
@@ -3620,10 +3581,10 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
@@ -3638,12 +3599,12 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
@@ -3660,10 +3621,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -3682,10 +3643,10 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
@@ -3698,10 +3659,10 @@
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
@@ -3711,12 +3672,12 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
@@ -3727,10 +3688,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
@@ -3739,10 +3700,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
@@ -3751,10 +3712,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
@@ -3763,10 +3724,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
@@ -3775,10 +3736,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
@@ -3787,10 +3748,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
@@ -3809,10 +3770,10 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
@@ -3829,10 +3790,10 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
@@ -3843,10 +3804,10 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
@@ -3857,10 +3818,10 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
@@ -3871,10 +3832,10 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
@@ -3891,10 +3852,10 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
@@ -3905,17 +3866,17 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="38" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3925,17 +3886,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3945,45 +3906,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="38" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3993,17 +3954,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="36"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -4011,103 +3972,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="39"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="36"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4117,17 +4078,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -4135,132 +4096,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -4291,14 +4252,46 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="A4:A28"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E28:H28"/>
@@ -4315,46 +4308,14 @@
     <mergeCell ref="E50:H50"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="263">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -516,11 +516,6 @@
     <t>MM01_Skill_Effect</t>
   </si>
   <si>
-    <t xml:space="preserve">보스 
-몬스터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">ETC 이펙트 리스트 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -907,6 +902,178 @@
   </si>
   <si>
     <t xml:space="preserve">마우스 이동 떄 마다 출력하는 별가루 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원형 형태의 공격 패턴 출력시 사용 / 일반 몬스터에서 사용하지 않음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴2 점프 패턴 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴2 점프 출력 시 사용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴2 점프 공격 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴2 착지 시 출력하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Pattern2_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Pattern2_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Pattern1_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Pattern3_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴3,4 탄막 몬스터 생성 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Pattern3_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Pattern3_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Ultimate_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">필살기 공격 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">궁극기 공격 시 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴3 탄막 몬스터 공격 이펙트 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">보스
+몬스터 바닥 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴 3 탄막 몬스터 공격 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴4번 생성 시 패턴3번의 이펙트 공유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴4번 제거 시 패턴3번의 이펙트 공유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴3번에만 사용 되는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴 3, 4 충돌후 제거 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴 3, 4 탄막 몬스터 생성 시 사용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴2 사용 시 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴1번 토끼 인형 돌진 시 사용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림캐쳐 몬스터의 바닥 이펙트를 사용 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Floor_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림캐쳐 몬스터의 바닥 이펙트를 색을 변경하여 사용 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">돌진 시 토끼인형 몸에서 출력하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">점프 출력 시 사용 되는 점프 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 후  지정 위치에 착지(공격)시 출력 되는 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 몬스터가 생성 될 시 사용 되는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 몬스터가 날아가는 형태의 파티클 이미지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴3,4 탄막 몬스터 삭제 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 몬스터가 날아가 충돌 후 삭제 시 출력 하는 이미지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">궁극기가 날아가는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 출력 되는 마법진의 이미지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Floor_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">궁극기 출력시  사용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원형 형태의 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.09.09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 몬스터 이펙트 내용 추가 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1116,7 +1283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1222,6 +1389,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1231,33 +1422,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,6 +1436,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1551,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1583,7 +1753,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>27</v>
@@ -1595,39 +1765,51 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>205</v>
-      </c>
       <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1639,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1671,12 +1853,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1685,7 +1867,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="43" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1697,19 +1879,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1719,12 +1901,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1733,7 +1915,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
@@ -1743,56 +1925,56 @@
       <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45"/>
+      <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E9" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1803,25 +1985,25 @@
         <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="39" t="s">
-        <v>163</v>
+      <c r="J10" s="42" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1829,27 +2011,27 @@
         <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+        <v>165</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="36" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1859,19 +2041,19 @@
         <v>51</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="2" t="s">
         <v>108</v>
       </c>
@@ -1881,127 +2063,127 @@
       <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="41" t="s">
+      <c r="E18" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="36" t="s">
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2013,43 +2195,43 @@
       <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -2057,121 +2239,104 @@
       <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="36" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="36" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="23"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E14:H14"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="J10:J11"/>
@@ -2187,6 +2352,23 @@
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2198,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B11:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2213,7 +2395,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2229,12 +2411,12 @@
       <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
@@ -2244,15 +2426,15 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="25"/>
       <c r="J5" s="1"/>
     </row>
@@ -2261,24 +2443,24 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="25"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
     </row>
@@ -2287,10 +2469,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
     </row>
@@ -2299,10 +2481,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="25"/>
       <c r="J9" s="3"/>
     </row>
@@ -2311,10 +2493,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="25"/>
       <c r="J10" s="3"/>
     </row>
@@ -2323,10 +2505,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="25"/>
       <c r="J11" s="1"/>
     </row>
@@ -2335,10 +2517,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
     </row>
@@ -2347,10 +2529,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="25"/>
       <c r="J13" s="1"/>
     </row>
@@ -2359,10 +2541,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
     </row>
@@ -2371,10 +2553,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="25"/>
       <c r="J15" s="1"/>
     </row>
@@ -2383,10 +2565,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
     </row>
@@ -2395,10 +2577,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="25"/>
       <c r="J17" s="1"/>
     </row>
@@ -2407,10 +2589,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="25"/>
       <c r="J18" s="1"/>
     </row>
@@ -2419,10 +2601,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="25"/>
       <c r="J19" s="1"/>
     </row>
@@ -2431,10 +2613,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="25"/>
       <c r="J20" s="1"/>
     </row>
@@ -2443,10 +2625,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="25"/>
       <c r="J21" s="1"/>
     </row>
@@ -2455,10 +2637,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="25"/>
       <c r="J22" s="1"/>
     </row>
@@ -2467,10 +2649,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="25"/>
       <c r="J23" s="1"/>
     </row>
@@ -2479,10 +2661,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="25"/>
       <c r="J24" s="1"/>
     </row>
@@ -2491,10 +2673,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="25"/>
       <c r="J25" s="1"/>
     </row>
@@ -2503,10 +2685,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1"/>
     </row>
@@ -2515,25 +2697,15 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="25"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2548,6 +2720,16 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2556,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J11"/>
+  <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2586,12 +2768,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2600,7 +2782,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2610,17 +2792,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -2628,61 +2810,31 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A8" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2723,12 +2875,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2737,66 +2889,66 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2818,18 +2970,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.375" customWidth="1"/>
+    <col min="10" max="10" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
@@ -2850,12 +3004,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2864,138 +3018,281 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>36</v>
+      <c r="A4" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+        <v>244</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
+      <c r="A5" s="37"/>
+      <c r="B5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+        <v>222</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1"/>
+      <c r="E12" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
   </mergeCells>
@@ -3022,7 +3319,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3038,12 +3335,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -3052,206 +3349,206 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="30" t="s">
         <v>130</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="30" t="s">
-        <v>131</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="49"/>
       <c r="B6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="B11" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="C11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E12" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="C13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="E13" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3313,12 +3610,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -3339,10 +3636,10 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
@@ -3359,10 +3656,10 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
@@ -3379,10 +3676,10 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
@@ -3397,12 +3694,12 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
@@ -3419,12 +3716,12 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
@@ -3441,12 +3738,12 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
@@ -3461,10 +3758,10 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
@@ -3481,10 +3778,10 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
@@ -3495,10 +3792,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3511,10 +3808,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
@@ -3527,10 +3824,10 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3545,10 +3842,10 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3563,10 +3860,10 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
@@ -3581,10 +3878,10 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
@@ -3599,12 +3896,12 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
@@ -3621,10 +3918,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -3643,10 +3940,10 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
@@ -3659,10 +3956,10 @@
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
@@ -3672,12 +3969,12 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
@@ -3688,10 +3985,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
@@ -3700,10 +3997,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
@@ -3712,10 +4009,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
@@ -3724,10 +4021,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
@@ -3736,10 +4033,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
@@ -3748,10 +4045,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
@@ -3770,10 +4067,10 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
@@ -3790,10 +4087,10 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
@@ -3804,10 +4101,10 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
@@ -3818,10 +4115,10 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
@@ -3832,10 +4129,10 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
@@ -3852,10 +4149,10 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
@@ -3866,17 +4163,17 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3886,17 +4183,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3906,45 +4203,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="37" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3954,17 +4251,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3972,103 +4269,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4078,17 +4375,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -4096,132 +4393,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="38"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -4252,30 +4549,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E47:H47"/>
@@ -4292,30 +4589,30 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="273">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -945,10 +945,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Boss_Effect_Pattern3_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Boss_Effect_Pattern3_003</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1074,6 +1070,50 @@
   </si>
   <si>
     <t xml:space="preserve">보스 몬스터 이펙트 내용 추가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 몬스터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Pattern3_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Effect_Remove_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 이펙트 바닥 충돌 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Effect_Remove_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 이펙트 공중 충돌 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 바닥 충돌 삭제 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 일정 시간 후 제거 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막이 바닥에 충돌 할 경우 출력하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막이 공중에서 일정 시간이 지나면 출력 되는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 후 탄막 제거</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1393,11 +1433,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1407,22 +1462,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1430,15 +1479,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1801,13 +1841,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E9" s="35"/>
     </row>
@@ -1853,12 +1893,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1907,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="37" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1879,19 +1919,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1901,12 +1941,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1915,7 +1955,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
@@ -1925,19 +1965,19 @@
       <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="2" t="s">
         <v>189</v>
       </c>
@@ -1947,19 +1987,19 @@
       <c r="D8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
@@ -1969,12 +2009,12 @@
       <c r="D9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1993,16 +2033,16 @@
       <c r="D10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="41" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2019,19 +2059,19 @@
       <c r="D11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="46" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2041,19 +2081,19 @@
         <v>51</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="2" t="s">
         <v>108</v>
       </c>
@@ -2063,19 +2103,19 @@
       <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="46" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2085,19 +2125,19 @@
         <v>171</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="2" t="s">
         <v>170</v>
       </c>
@@ -2107,19 +2147,19 @@
       <c r="D15" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="46" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2129,19 +2169,19 @@
         <v>175</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="2" t="s">
         <v>174</v>
       </c>
@@ -2149,19 +2189,19 @@
         <v>176</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>172</v>
       </c>
@@ -2171,19 +2211,19 @@
       <c r="D18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="46" t="s">
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2195,19 +2235,19 @@
       <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="2" t="s">
         <v>135</v>
       </c>
@@ -2217,19 +2257,19 @@
       <c r="D20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="20" t="s">
         <v>139</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="2" t="s">
         <v>136</v>
       </c>
@@ -2239,89 +2279,89 @@
       <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="46" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="46" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="23"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
@@ -2337,6 +2377,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E14:H14"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="J10:J11"/>
@@ -2352,23 +2408,7 @@
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E14:H14"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2380,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2411,12 +2451,12 @@
       <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
@@ -2431,10 +2471,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="25"/>
       <c r="J5" s="1"/>
     </row>
@@ -2443,10 +2483,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="25"/>
       <c r="J6" s="1"/>
     </row>
@@ -2457,10 +2497,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
     </row>
@@ -2469,10 +2509,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
     </row>
@@ -2481,10 +2521,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="25"/>
       <c r="J9" s="3"/>
     </row>
@@ -2493,10 +2533,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="25"/>
       <c r="J10" s="3"/>
     </row>
@@ -2505,10 +2545,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="25"/>
       <c r="J11" s="1"/>
     </row>
@@ -2517,10 +2557,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
     </row>
@@ -2529,10 +2569,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="25"/>
       <c r="J13" s="1"/>
     </row>
@@ -2541,10 +2581,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
     </row>
@@ -2553,10 +2593,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="25"/>
       <c r="J15" s="1"/>
     </row>
@@ -2565,10 +2605,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
     </row>
@@ -2577,10 +2617,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="25"/>
       <c r="J17" s="1"/>
     </row>
@@ -2589,10 +2629,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="25"/>
       <c r="J18" s="1"/>
     </row>
@@ -2601,10 +2641,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="25"/>
       <c r="J19" s="1"/>
     </row>
@@ -2613,10 +2653,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="25"/>
       <c r="J20" s="1"/>
     </row>
@@ -2625,10 +2665,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="25"/>
       <c r="J21" s="1"/>
     </row>
@@ -2637,10 +2677,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="25"/>
       <c r="J22" s="1"/>
     </row>
@@ -2649,10 +2689,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="25"/>
       <c r="J23" s="1"/>
     </row>
@@ -2661,10 +2701,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="25"/>
       <c r="J24" s="1"/>
     </row>
@@ -2673,10 +2713,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="25"/>
       <c r="J25" s="1"/>
     </row>
@@ -2685,10 +2725,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1"/>
     </row>
@@ -2697,15 +2737,25 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
       <c r="I27" s="25"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2720,16 +2770,6 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2768,12 +2808,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2782,7 +2822,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="40" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2792,17 +2832,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -2810,10 +2850,10 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
@@ -2875,12 +2915,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2889,7 +2929,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2899,17 +2939,17 @@
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2" t="s">
         <v>142</v>
       </c>
@@ -2917,38 +2957,38 @@
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2972,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3004,12 +3044,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -3018,8 +3058,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>260</v>
+      <c r="A4" s="40" t="s">
+        <v>259</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>227</v>
@@ -3028,23 +3068,23 @@
         <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
+        <v>243</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="16" t="s">
         <v>139</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2" t="s">
         <v>225</v>
       </c>
@@ -3054,19 +3094,19 @@
       <c r="D5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2" t="s">
         <v>226</v>
       </c>
@@ -3076,91 +3116,91 @@
       <c r="D6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+        <v>241</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
@@ -3170,43 +3210,43 @@
       <c r="D10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>236</v>
+      <c r="A11" s="46" t="s">
+        <v>235</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="2" t="s">
         <v>155</v>
       </c>
@@ -3216,71 +3256,125 @@
       <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="E12" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="2" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
@@ -3288,13 +3382,6 @@
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3335,12 +3422,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -3349,7 +3436,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
         <v>197</v>
       </c>
@@ -3359,19 +3446,19 @@
       <c r="D5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="30" t="s">
         <v>130</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="1" t="s">
         <v>198</v>
       </c>
@@ -3381,19 +3468,19 @@
       <c r="D6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="30" t="s">
         <v>130</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="1" t="s">
         <v>124</v>
       </c>
@@ -3403,19 +3490,19 @@
       <c r="D7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="30" t="s">
         <v>132</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="46" t="s">
         <v>205</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3427,19 +3514,19 @@
       <c r="D8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="1" t="s">
         <v>148</v>
       </c>
@@ -3449,19 +3536,19 @@
       <c r="D9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
@@ -3471,19 +3558,19 @@
       <c r="D10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="46" t="s">
         <v>206</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -3495,19 +3582,19 @@
       <c r="D11" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="29" t="s">
         <v>208</v>
       </c>
@@ -3517,12 +3604,12 @@
       <c r="D12" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="34" t="s">
         <v>130</v>
       </c>
@@ -3541,12 +3628,12 @@
       <c r="D13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="34" t="s">
         <v>130</v>
       </c>
@@ -3610,12 +3697,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -3624,7 +3711,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3636,17 +3723,17 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
@@ -3656,17 +3743,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
@@ -3676,17 +3763,17 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
@@ -3694,19 +3781,19 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
@@ -3716,19 +3803,19 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
@@ -3738,19 +3825,19 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>79</v>
@@ -3758,17 +3845,17 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -3778,24 +3865,24 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3804,37 +3891,37 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
@@ -3842,17 +3929,17 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
@@ -3860,17 +3947,17 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
@@ -3878,17 +3965,17 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
@@ -3896,19 +3983,19 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
@@ -3918,10 +4005,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -3930,7 +4017,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -3940,122 +4027,122 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+      <c r="A22" s="50"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="49" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -4067,17 +4154,17 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -4087,59 +4174,59 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
@@ -4149,31 +4236,31 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="45"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="40" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4183,17 +4270,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -4203,45 +4290,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="40" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4251,17 +4338,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -4269,103 +4356,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="45"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="40"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="45"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="45"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4375,17 +4462,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -4393,132 +4480,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -4549,14 +4636,46 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="A4:A28"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E28:H28"/>
@@ -4573,46 +4692,14 @@
     <mergeCell ref="E50:H50"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -929,14 +929,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Boss_Effect_Pattern2_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss_Effect_Pattern1_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Boss_Effect_Pattern3_002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1077,43 +1069,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Bullet_Effect_Remove_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 이펙트 바닥 충돌 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Effect_Remove_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 이펙트 공중 충돌 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 바닥 충돌 삭제 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 일정 시간 후 제거 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막이 바닥에 충돌 할 경우 출력하는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막이 공중에서 일정 시간이 지나면 출력 되는 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 후 탄막 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Effect_Pattern1_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Boss_Effect_Pattern3_001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet_Effect_Remove_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄막 이펙트 바닥 충돌 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_Effect_Remove_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄막 이펙트 공중 충돌 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탄막 바닥 충돌 삭제 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탄막 일정 시간 후 제거 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탄막이 바닥에 충돌 할 경우 출력하는 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탄막이 공중에서 일정 시간이 지나면 출력 되는 이펙트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출력 후 탄막 제거</t>
+    <t>Boss_Effect_Pattern2_002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1435,6 +1435,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1444,29 +1462,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E9" s="35"/>
     </row>
@@ -1893,12 +1893,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1907,7 +1907,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1919,19 +1919,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1941,12 +1941,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
@@ -1965,19 +1965,19 @@
       <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="2" t="s">
         <v>189</v>
       </c>
@@ -1987,19 +1987,19 @@
       <c r="D8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
@@ -2009,12 +2009,12 @@
       <c r="D9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="28" t="s">
         <v>25</v>
       </c>
@@ -2033,16 +2033,16 @@
       <c r="D10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="42" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2059,19 +2059,19 @@
       <c r="D11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2081,19 +2081,19 @@
         <v>51</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="2" t="s">
         <v>108</v>
       </c>
@@ -2103,19 +2103,19 @@
       <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2125,19 +2125,19 @@
         <v>171</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="2" t="s">
         <v>170</v>
       </c>
@@ -2147,19 +2147,19 @@
       <c r="D15" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2169,19 +2169,19 @@
         <v>175</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>174</v>
       </c>
@@ -2189,19 +2189,19 @@
         <v>176</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>172</v>
       </c>
@@ -2211,19 +2211,19 @@
       <c r="D18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2235,19 +2235,19 @@
       <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="2" t="s">
         <v>135</v>
       </c>
@@ -2257,19 +2257,19 @@
       <c r="D20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="20" t="s">
         <v>139</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="2" t="s">
         <v>136</v>
       </c>
@@ -2279,89 +2279,89 @@
       <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="47" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="23"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
@@ -2377,22 +2377,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E14:H14"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="J10:J11"/>
@@ -2409,6 +2393,22 @@
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,12 +2451,12 @@
       <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
@@ -2471,10 +2471,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="25"/>
       <c r="J5" s="1"/>
     </row>
@@ -2483,10 +2483,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="25"/>
       <c r="J6" s="1"/>
     </row>
@@ -2497,10 +2497,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
     </row>
@@ -2509,10 +2509,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
     </row>
@@ -2521,10 +2521,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="25"/>
       <c r="J9" s="3"/>
     </row>
@@ -2533,10 +2533,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="25"/>
       <c r="J10" s="3"/>
     </row>
@@ -2545,10 +2545,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="25"/>
       <c r="J11" s="1"/>
     </row>
@@ -2557,10 +2557,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
     </row>
@@ -2569,10 +2569,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="25"/>
       <c r="J13" s="1"/>
     </row>
@@ -2581,10 +2581,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
     </row>
@@ -2593,10 +2593,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="25"/>
       <c r="J15" s="1"/>
     </row>
@@ -2605,10 +2605,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
     </row>
@@ -2617,10 +2617,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="25"/>
       <c r="J17" s="1"/>
     </row>
@@ -2629,10 +2629,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="25"/>
       <c r="J18" s="1"/>
     </row>
@@ -2641,10 +2641,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="25"/>
       <c r="J19" s="1"/>
     </row>
@@ -2653,10 +2653,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="25"/>
       <c r="J20" s="1"/>
     </row>
@@ -2665,10 +2665,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="25"/>
       <c r="J21" s="1"/>
     </row>
@@ -2677,10 +2677,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="25"/>
       <c r="J22" s="1"/>
     </row>
@@ -2689,10 +2689,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="25"/>
       <c r="J23" s="1"/>
     </row>
@@ -2701,10 +2701,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="25"/>
       <c r="J24" s="1"/>
     </row>
@@ -2713,10 +2713,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="25"/>
       <c r="J25" s="1"/>
     </row>
@@ -2725,10 +2725,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1"/>
     </row>
@@ -2737,25 +2737,15 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="25"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2770,6 +2760,16 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2808,12 +2808,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2822,7 +2822,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2832,17 +2832,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -2850,10 +2850,10 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
@@ -2915,12 +2915,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2929,7 +2929,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2939,17 +2939,17 @@
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="2" t="s">
         <v>142</v>
       </c>
@@ -2957,38 +2957,38 @@
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -3013,7 +3013,7 @@
   <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3044,12 +3044,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -3058,33 +3058,33 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>259</v>
+      <c r="A4" s="37" t="s">
+        <v>257</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
+        <v>241</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="16" t="s">
         <v>139</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="2" t="s">
         <v>225</v>
       </c>
@@ -3094,21 +3094,21 @@
       <c r="D5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="E5" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>223</v>
@@ -3116,91 +3116,91 @@
       <c r="D6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="43" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
@@ -3210,43 +3210,43 @@
       <c r="D10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
+      <c r="E10" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>235</v>
+      <c r="A11" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="E11" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="2" t="s">
         <v>155</v>
       </c>
@@ -3256,115 +3256,116 @@
       <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="E12" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+        <v>255</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="47"/>
+      <c r="B16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
@@ -3381,7 +3382,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3422,12 +3422,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -3436,7 +3436,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>197</v>
       </c>
@@ -3446,12 +3446,12 @@
       <c r="D5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="30" t="s">
         <v>130</v>
       </c>
@@ -3468,19 +3468,19 @@
       <c r="D6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="30" t="s">
         <v>130</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="1" t="s">
         <v>124</v>
       </c>
@@ -3490,19 +3490,19 @@
       <c r="D7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="30" t="s">
         <v>132</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="47" t="s">
         <v>205</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3514,19 +3514,19 @@
       <c r="D8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="1" t="s">
         <v>148</v>
       </c>
@@ -3536,19 +3536,19 @@
       <c r="D9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
@@ -3558,19 +3558,19 @@
       <c r="D10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>206</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -3582,19 +3582,19 @@
       <c r="D11" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="29" t="s">
         <v>208</v>
       </c>
@@ -3604,12 +3604,12 @@
       <c r="D12" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="34" t="s">
         <v>130</v>
       </c>
@@ -3628,12 +3628,12 @@
       <c r="D13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="34" t="s">
         <v>130</v>
       </c>
@@ -3697,12 +3697,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -3723,10 +3723,10 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
@@ -3743,10 +3743,10 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
@@ -3763,10 +3763,10 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
@@ -3781,12 +3781,12 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
@@ -3803,12 +3803,12 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
@@ -3825,12 +3825,12 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
@@ -3845,10 +3845,10 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
@@ -3865,10 +3865,10 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
@@ -3879,10 +3879,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3895,10 +3895,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
@@ -3911,10 +3911,10 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3929,10 +3929,10 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3947,10 +3947,10 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
@@ -3965,10 +3965,10 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
@@ -3983,12 +3983,12 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
@@ -4005,10 +4005,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -4027,10 +4027,10 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
@@ -4043,10 +4043,10 @@
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
@@ -4056,12 +4056,12 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
@@ -4072,10 +4072,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
@@ -4084,10 +4084,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
@@ -4096,10 +4096,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
@@ -4108,10 +4108,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
@@ -4120,10 +4120,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
@@ -4132,10 +4132,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
@@ -4154,10 +4154,10 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
@@ -4174,10 +4174,10 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
@@ -4188,10 +4188,10 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
@@ -4202,10 +4202,10 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
@@ -4216,10 +4216,10 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
@@ -4236,10 +4236,10 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
@@ -4250,17 +4250,17 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="45"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4270,17 +4270,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -4290,45 +4290,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="37" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4338,17 +4338,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -4356,103 +4356,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="45"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="45"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4462,17 +4462,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -4480,132 +4480,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -4636,30 +4636,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E47:H47"/>
@@ -4676,30 +4676,30 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6790C2E7-140B-456E-84DD-B0CE9ED9E0CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="226">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -780,10 +781,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hp 바</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PC_Effect_Missing_001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -907,13 +904,37 @@
   </si>
   <si>
     <t xml:space="preserve">마우스 이동 떄 마다 출력하는 별가루 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Effect_SkillCoolTime_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬이 쿨타임일 경우 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Effect_ChangeCoolTime_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 UI 쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 UI 쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 후 변신 쿨타임이 걸릴 경우 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1222,6 +1243,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1231,28 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1619,13 +1640,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>154</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -1636,11 +1657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1671,12 +1692,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1685,7 +1706,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1697,19 +1718,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1719,12 +1740,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1733,7 +1754,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
@@ -1743,56 +1764,56 @@
       <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E9" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1811,16 +1832,16 @@
       <c r="D10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="41" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1837,19 +1858,19 @@
       <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="35" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1859,19 +1880,19 @@
         <v>51</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="2" t="s">
         <v>108</v>
       </c>
@@ -1881,19 +1902,19 @@
       <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="35" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1903,19 +1924,19 @@
         <v>172</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="2" t="s">
         <v>171</v>
       </c>
@@ -1925,19 +1946,19 @@
       <c r="D15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1947,19 +1968,19 @@
         <v>176</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>175</v>
       </c>
@@ -1967,19 +1988,19 @@
         <v>177</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="2" t="s">
         <v>173</v>
       </c>
@@ -1989,19 +2010,19 @@
       <c r="D18" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="35" t="s">
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2013,19 +2034,19 @@
       <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="2" t="s">
         <v>136</v>
       </c>
@@ -2035,19 +2056,19 @@
       <c r="D20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="20" t="s">
         <v>140</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="2" t="s">
         <v>137</v>
       </c>
@@ -2057,89 +2078,89 @@
       <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="35" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="14"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="14"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="23"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
@@ -2155,23 +2176,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E14:H14"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="J10:J11"/>
@@ -2187,6 +2191,23 @@
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2195,18 +2216,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B11:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.875" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.875" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
   </cols>
@@ -2229,12 +2250,12 @@
       <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
@@ -2246,39 +2267,49 @@
       <c r="A5" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="25"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="B6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="25"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>189</v>
-      </c>
+      <c r="A7" s="29"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
     </row>
@@ -2287,10 +2318,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
     </row>
@@ -2299,10 +2330,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="25"/>
       <c r="J9" s="3"/>
     </row>
@@ -2311,10 +2342,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="25"/>
       <c r="J10" s="3"/>
     </row>
@@ -2323,10 +2354,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="25"/>
       <c r="J11" s="1"/>
     </row>
@@ -2335,10 +2366,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
     </row>
@@ -2347,10 +2378,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="25"/>
       <c r="J13" s="1"/>
     </row>
@@ -2359,10 +2390,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
     </row>
@@ -2371,10 +2402,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="25"/>
       <c r="J15" s="1"/>
     </row>
@@ -2383,10 +2414,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
     </row>
@@ -2395,10 +2426,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="25"/>
       <c r="J17" s="1"/>
     </row>
@@ -2407,10 +2438,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="25"/>
       <c r="J18" s="1"/>
     </row>
@@ -2419,10 +2450,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="25"/>
       <c r="J19" s="1"/>
     </row>
@@ -2431,10 +2462,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="25"/>
       <c r="J20" s="1"/>
     </row>
@@ -2443,10 +2474,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="25"/>
       <c r="J21" s="1"/>
     </row>
@@ -2455,10 +2486,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="25"/>
       <c r="J22" s="1"/>
     </row>
@@ -2467,10 +2498,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="25"/>
       <c r="J23" s="1"/>
     </row>
@@ -2479,10 +2510,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="25"/>
       <c r="J24" s="1"/>
     </row>
@@ -2491,10 +2522,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="25"/>
       <c r="J25" s="1"/>
     </row>
@@ -2503,10 +2534,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1"/>
     </row>
@@ -2515,25 +2546,15 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="25"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2548,14 +2569,25 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2586,12 +2618,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2600,7 +2632,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2610,17 +2642,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -2628,38 +2660,38 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2690,7 +2722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2723,12 +2755,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2737,7 +2769,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2747,17 +2779,17 @@
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="2" t="s">
         <v>143</v>
       </c>
@@ -2765,38 +2797,38 @@
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -2817,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2850,12 +2882,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2876,10 +2908,10 @@
       <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
@@ -2896,10 +2928,10 @@
       <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
@@ -2910,10 +2942,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
@@ -2924,10 +2956,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="16" t="s">
         <v>25</v>
       </c>
@@ -2938,10 +2970,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
@@ -2958,10 +2990,10 @@
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
@@ -2978,10 +3010,10 @@
       <c r="D10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -3005,7 +3037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3038,12 +3070,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -3052,9 +3084,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>128</v>
@@ -3062,12 +3094,12 @@
       <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="30" t="s">
         <v>131</v>
       </c>
@@ -3076,27 +3108,27 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="49"/>
       <c r="B6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="30" t="s">
         <v>131</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
@@ -3106,20 +3138,20 @@
       <c r="D7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="30" t="s">
         <v>133</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>206</v>
+      <c r="A8" s="35" t="s">
+        <v>205</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>144</v>
@@ -3130,19 +3162,19 @@
       <c r="D8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="E8" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="34" t="s">
         <v>131</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="1" t="s">
         <v>149</v>
       </c>
@@ -3152,19 +3184,19 @@
       <c r="D9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="E9" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="34" t="s">
         <v>131</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>150</v>
       </c>
@@ -3174,58 +3206,58 @@
       <c r="D10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="34" t="s">
         <v>131</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>208</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+        <v>213</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="34" t="s">
         <v>131</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
+        <v>214</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="34" t="s">
         <v>131</v>
       </c>
@@ -3233,23 +3265,23 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="C13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="E13" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="34" t="s">
         <v>131</v>
       </c>
@@ -3277,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
@@ -3313,12 +3345,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -3339,10 +3371,10 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
@@ -3359,10 +3391,10 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
@@ -3379,10 +3411,10 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
@@ -3397,12 +3429,12 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
@@ -3419,12 +3451,12 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
@@ -3441,12 +3473,12 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
@@ -3461,10 +3493,10 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
@@ -3481,10 +3513,10 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
@@ -3495,10 +3527,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3511,10 +3543,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
@@ -3527,10 +3559,10 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3545,10 +3577,10 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3563,10 +3595,10 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
@@ -3581,10 +3613,10 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
@@ -3599,12 +3631,12 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
@@ -3621,10 +3653,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -3643,10 +3675,10 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
@@ -3659,10 +3691,10 @@
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
@@ -3672,12 +3704,12 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
@@ -3688,10 +3720,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
@@ -3700,10 +3732,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
@@ -3712,10 +3744,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
@@ -3724,10 +3756,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
@@ -3736,10 +3768,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
@@ -3748,10 +3780,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
@@ -3770,10 +3802,10 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
@@ -3790,10 +3822,10 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
@@ -3804,10 +3836,10 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
@@ -3818,10 +3850,10 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
@@ -3832,10 +3864,10 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
@@ -3852,10 +3884,10 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
@@ -3866,17 +3898,17 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3886,17 +3918,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3906,45 +3938,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="36" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3954,17 +3986,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -3972,103 +4004,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4078,17 +4110,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -4096,132 +4128,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="38"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -4252,30 +4284,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E47:H47"/>
@@ -4292,30 +4324,30 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="278">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -799,10 +799,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">회피 종료 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">회피 입력 시 출력 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1114,6 +1110,30 @@
   </si>
   <si>
     <t>Boss_Effect_Pattern2_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Item_Get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템 획득 시 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어에게 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Item_Shiled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템 획득 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Effect_Item_DotHeailng</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1323,7 +1343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,6 +1458,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,26 +1485,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1829,25 +1852,25 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>153</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E9" s="35"/>
     </row>
@@ -1859,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J31"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1893,12 +1916,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1907,7 +1930,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1919,19 +1942,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1941,12 +1964,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1955,7 +1978,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
@@ -1977,7 +2000,7 @@
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>189</v>
       </c>
@@ -1987,19 +2010,19 @@
       <c r="D8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="E8" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
@@ -2007,408 +2030,477 @@
         <v>192</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E13" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="42" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E14" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="46"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="37" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="14" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="2" t="s">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="41"/>
+      <c r="B16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E16" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="37" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="2" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E18" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="23" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="14" t="s">
-        <v>56</v>
+        <v>173</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="20" t="s">
-        <v>139</v>
+        <v>174</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>172</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="47"/>
+      <c r="B23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="23"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="A27" s="47" t="s">
+        <v>104</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="41"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="41"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="1"/>
+    </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="J10:J11"/>
+  <mergeCells count="35">
     <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E11:H11"/>
     <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E16:H16"/>
     <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E10:H10"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2421,7 +2513,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2451,12 +2543,12 @@
       <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
@@ -2471,10 +2563,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="25"/>
       <c r="J5" s="1"/>
     </row>
@@ -2483,10 +2575,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="25"/>
       <c r="J6" s="1"/>
     </row>
@@ -2497,10 +2589,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
     </row>
@@ -2509,10 +2601,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
     </row>
@@ -2521,10 +2613,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="25"/>
       <c r="J9" s="3"/>
     </row>
@@ -2533,10 +2625,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="25"/>
       <c r="J10" s="3"/>
     </row>
@@ -2545,10 +2637,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="25"/>
       <c r="J11" s="1"/>
     </row>
@@ -2557,10 +2649,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
     </row>
@@ -2569,10 +2661,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="25"/>
       <c r="J13" s="1"/>
     </row>
@@ -2581,10 +2673,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
     </row>
@@ -2593,10 +2685,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="25"/>
       <c r="J15" s="1"/>
     </row>
@@ -2605,10 +2697,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
     </row>
@@ -2617,10 +2709,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="25"/>
       <c r="J17" s="1"/>
     </row>
@@ -2629,10 +2721,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="25"/>
       <c r="J18" s="1"/>
     </row>
@@ -2641,10 +2733,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="25"/>
       <c r="J19" s="1"/>
     </row>
@@ -2653,10 +2745,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="25"/>
       <c r="J20" s="1"/>
     </row>
@@ -2665,10 +2757,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="25"/>
       <c r="J21" s="1"/>
     </row>
@@ -2677,10 +2769,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="25"/>
       <c r="J22" s="1"/>
     </row>
@@ -2689,10 +2781,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="25"/>
       <c r="J23" s="1"/>
     </row>
@@ -2701,10 +2793,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="25"/>
       <c r="J24" s="1"/>
     </row>
@@ -2713,10 +2805,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="25"/>
       <c r="J25" s="1"/>
     </row>
@@ -2725,10 +2817,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1"/>
     </row>
@@ -2737,15 +2829,25 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="25"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2760,16 +2862,6 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2808,12 +2900,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2822,7 +2914,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="41" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2832,17 +2924,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -2850,10 +2942,10 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
@@ -2915,12 +3007,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2929,7 +3021,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2939,17 +3031,17 @@
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="2" t="s">
         <v>142</v>
       </c>
@@ -2957,38 +3049,38 @@
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
@@ -3012,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3044,12 +3136,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -3058,149 +3150,149 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>257</v>
+      <c r="A4" s="41" t="s">
+        <v>256</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
+        <v>240</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="16" t="s">
         <v>139</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="41"/>
+      <c r="B6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
@@ -3210,12 +3302,12 @@
       <c r="D10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
@@ -3223,23 +3315,23 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="35" t="s">
         <v>25</v>
       </c>
@@ -3256,36 +3348,36 @@
       <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="E12" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+        <v>239</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="35" t="s">
         <v>25</v>
       </c>
@@ -3294,20 +3386,20 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="35" t="s">
         <v>25</v>
       </c>
@@ -3315,56 +3407,57 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+        <v>264</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="36" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="E15:H15"/>
@@ -3381,7 +3474,6 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3422,12 +3514,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -3438,7 +3530,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>127</v>
@@ -3446,41 +3538,41 @@
       <c r="D5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="30" t="s">
         <v>130</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="30" t="s">
         <v>130</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="1" t="s">
         <v>124</v>
       </c>
@@ -3490,12 +3582,12 @@
       <c r="D7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="30" t="s">
         <v>132</v>
       </c>
@@ -3503,7 +3595,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>143</v>
@@ -3514,19 +3606,19 @@
       <c r="D8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="E8" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="1" t="s">
         <v>148</v>
       </c>
@@ -3536,19 +3628,19 @@
       <c r="D9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="E9" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
@@ -3558,12 +3650,12 @@
       <c r="D10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="E10" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="34" t="s">
         <v>130</v>
       </c>
@@ -3571,23 +3663,23 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>207</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+        <v>212</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="34" t="s">
         <v>130</v>
       </c>
@@ -3596,20 +3688,20 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+        <v>213</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="34" t="s">
         <v>130</v>
       </c>
@@ -3617,23 +3709,23 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="34" t="s">
         <v>130</v>
       </c>
@@ -3697,12 +3789,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -3711,7 +3803,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3723,17 +3815,17 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
@@ -3743,17 +3835,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
@@ -3763,17 +3855,17 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
@@ -3781,19 +3873,19 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
@@ -3803,19 +3895,19 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
@@ -3825,19 +3917,19 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>79</v>
@@ -3845,17 +3937,17 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -3865,24 +3957,24 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3891,37 +3983,37 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
@@ -3929,17 +4021,17 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
@@ -3947,17 +4039,17 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
@@ -3965,17 +4057,17 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
@@ -3983,19 +4075,19 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
@@ -4005,10 +4097,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -4017,7 +4109,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -4027,122 +4119,122 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="50" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -4154,17 +4246,17 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -4174,59 +4266,59 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
@@ -4236,31 +4328,31 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4270,17 +4362,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -4290,45 +4382,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="41" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4338,17 +4430,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -4356,103 +4448,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="40"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4462,17 +4554,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -4480,132 +4572,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -4636,14 +4728,46 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="A4:A28"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E28:H28"/>
@@ -4660,46 +4784,14 @@
     <mergeCell ref="E50:H50"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/이펙트 리스트.xlsx
+++ b/Document/리스트/이펙트 리스트.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="3" r:id="rId1"/>
     <sheet name="플레이어 " sheetId="4" r:id="rId2"/>
     <sheet name="UI이펙트" sheetId="8" r:id="rId3"/>
     <sheet name="몬스터(맥)" sheetId="5" r:id="rId4"/>
-    <sheet name="몬스터(드림캐쳐)" sheetId="6" r:id="rId5"/>
-    <sheet name="보스" sheetId="2" r:id="rId6"/>
-    <sheet name="환경 이펙트 " sheetId="7" r:id="rId7"/>
-    <sheet name="전체 리스트 (최신화 안됨)" sheetId="1" r:id="rId8"/>
+    <sheet name="몬스터(레드햇)" sheetId="6" r:id="rId5"/>
+    <sheet name="몬스터(티버) " sheetId="9" r:id="rId6"/>
+    <sheet name="보스" sheetId="2" r:id="rId7"/>
+    <sheet name="환경 이펙트 " sheetId="7" r:id="rId8"/>
+    <sheet name="전체 리스트 (최신화 안됨)" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="283">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1134,6 +1135,26 @@
   </si>
   <si>
     <t>PC_Effect_Item_DotHeailng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터(티버)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD01_Jump_Attack_Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD01_Tornado_Attack_Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 점프 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티머 회오리 공격</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1343,7 +1364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1458,6 +1479,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,29 +1512,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1884,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1916,12 +1943,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -1930,7 +1957,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="46" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
@@ -1942,19 +1969,19 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -1964,12 +1991,12 @@
       <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
@@ -1978,7 +2005,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="19" t="s">
         <v>109</v>
       </c>
@@ -1988,19 +2015,19 @@
       <c r="D7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="27" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="2" t="s">
         <v>189</v>
       </c>
@@ -2010,19 +2037,19 @@
       <c r="D8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
@@ -2032,19 +2059,19 @@
       <c r="D9" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="2" t="s">
         <v>272</v>
       </c>
@@ -2054,19 +2081,19 @@
       <c r="D10" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="2" t="s">
         <v>277</v>
       </c>
@@ -2076,19 +2103,19 @@
       <c r="D11" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="2" t="s">
         <v>275</v>
       </c>
@@ -2098,12 +2125,12 @@
       <c r="D12" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="28" t="s">
         <v>25</v>
       </c>
@@ -2122,16 +2149,16 @@
       <c r="D13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="45" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2148,19 +2175,19 @@
       <c r="D14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="43"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="50" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2170,19 +2197,19 @@
         <v>51</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="2" t="s">
         <v>108</v>
       </c>
@@ -2192,19 +2219,19 @@
       <c r="D16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="50" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2214,19 +2241,19 @@
         <v>171</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>170</v>
       </c>
@@ -2236,19 +2263,19 @@
       <c r="D18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2258,19 +2285,19 @@
         <v>175</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>174</v>
       </c>
@@ -2278,19 +2305,19 @@
         <v>176</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="2" t="s">
         <v>172</v>
       </c>
@@ -2300,19 +2327,19 @@
       <c r="D21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2324,19 +2351,19 @@
       <c r="D22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="2" t="s">
         <v>135</v>
       </c>
@@ -2346,19 +2373,19 @@
       <c r="D23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="20" t="s">
         <v>139</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="2" t="s">
         <v>136</v>
       </c>
@@ -2368,89 +2395,89 @@
       <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="50" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="14"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="14"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="14"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="14"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="23"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="14"/>
       <c r="J30" s="1"/>
     </row>
@@ -2466,25 +2493,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="J13:J14"/>
@@ -2501,6 +2509,25 @@
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2543,12 +2570,12 @@
       <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="26" t="s">
         <v>24</v>
       </c>
@@ -2563,10 +2590,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="25"/>
       <c r="J5" s="1"/>
     </row>
@@ -2575,10 +2602,10 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="25"/>
       <c r="J6" s="1"/>
     </row>
@@ -2589,10 +2616,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
     </row>
@@ -2601,10 +2628,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="25"/>
       <c r="J8" s="1"/>
     </row>
@@ -2613,10 +2640,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="25"/>
       <c r="J9" s="3"/>
     </row>
@@ -2625,10 +2652,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="25"/>
       <c r="J10" s="3"/>
     </row>
@@ -2637,10 +2664,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="25"/>
       <c r="J11" s="1"/>
     </row>
@@ -2649,10 +2676,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="25"/>
       <c r="J12" s="1"/>
     </row>
@@ -2661,10 +2688,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="25"/>
       <c r="J13" s="1"/>
     </row>
@@ -2673,10 +2700,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="25"/>
       <c r="J14" s="1"/>
     </row>
@@ -2685,10 +2712,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="25"/>
       <c r="J15" s="1"/>
     </row>
@@ -2697,10 +2724,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="25"/>
       <c r="J16" s="1"/>
     </row>
@@ -2709,10 +2736,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="25"/>
       <c r="J17" s="1"/>
     </row>
@@ -2721,10 +2748,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="25"/>
       <c r="J18" s="1"/>
     </row>
@@ -2733,10 +2760,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="25"/>
       <c r="J19" s="1"/>
     </row>
@@ -2745,10 +2772,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="25"/>
       <c r="J20" s="1"/>
     </row>
@@ -2757,10 +2784,10 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="25"/>
       <c r="J21" s="1"/>
     </row>
@@ -2769,10 +2796,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="25"/>
       <c r="J22" s="1"/>
     </row>
@@ -2781,10 +2808,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="25"/>
       <c r="J23" s="1"/>
     </row>
@@ -2793,10 +2820,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="25"/>
       <c r="J24" s="1"/>
     </row>
@@ -2805,10 +2832,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="25"/>
       <c r="J25" s="1"/>
     </row>
@@ -2817,10 +2844,10 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="25"/>
       <c r="J26" s="1"/>
     </row>
@@ -2829,25 +2856,15 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="25"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
@@ -2862,6 +2879,16 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2873,7 +2900,7 @@
   <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2900,12 +2927,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -2914,7 +2941,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2924,17 +2951,17 @@
         <v>39</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2" t="s">
         <v>122</v>
       </c>
@@ -2942,10 +2969,10 @@
         <v>40</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="14" t="s">
         <v>26</v>
       </c>
@@ -3007,12 +3034,12 @@
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
@@ -3021,7 +3048,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3031,17 +3058,15 @@
         <v>39</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2" t="s">
         <v>142</v>
       </c>
@@ -3049,41 +3074,35 @@
         <v>40</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="1"/>
     </row>
   </sheetData>
@@ -3101,6 +3120,125 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J16"/>
   <sheetViews>
@@ -3136,12 +3274,12 @@
       <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
@@ -3150,7 +3288,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>256</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3162,12 +3300,12 @@
       <c r="D4" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="16" t="s">
         <v>139</v>
       </c>
@@ -3176,7 +3314,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="2" t="s">
         <v>224</v>
       </c>
@@ -3186,19 +3324,19 @@
       <c r="D5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2" t="s">
         <v>271</v>
       </c>
@@ -3208,19 +3346,19 @@
       <c r="D6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>270</v>
       </c>
@@ -3230,12 +3368,12 @@
       <c r="D7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="35" t="s">
         <v>25</v>
       </c>
@@ -3244,7 +3382,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="2" t="s">
         <v>225</v>
       </c>
@@ -3254,12 +3392,12 @@
       <c r="D8" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="35" t="s">
         <v>25</v>
       </c>
@@ -3268,7 +3406,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="2" t="s">
         <v>227</v>
       </c>
@@ -3278,12 +3416,12 @@
       <c r="D9" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
@@ -3292,7 +3430,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
@@ -3302,19 +3440,19 @@
       <c r="D10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="50" t="s">
         <v>232</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3326,19 +3464,19 @@
       <c r="D11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="2" t="s">
         <v>155</v>
       </c>
@@ -3348,12 +3486,12 @@
       <c r="D12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="35" t="s">
         <v>25</v>
       </c>
@@ -3362,7 +3500,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="2" t="s">
         <v>242</v>
       </c>
@@ -3372,19 +3510,19 @@
       <c r="D13" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="2" t="s">
         <v>253</v>
       </c>
@@ -3394,19 +3532,19 @@
       <c r="D14" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="35" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="50" t="s">
         <v>259</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3418,12 +3556,12 @@
       <c r="D15" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="36" t="s">
         <v>25</v>
       </c>
@@ -3432,7 +3570,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="2" t="s">
         <v>262</v>
       </c>
@@ -3442,12 +3580,12 @@
       <c r="D16" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="36" t="s">
         <v>25</v>
       </c>
@@ -3457,11 +3595,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="E4:H4"/>
@@ -3470,6 +3603,11 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="A11:A14"/>
@@ -3480,7 +3618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
@@ -3514,12 +3652,12 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="15" t="s">
         <v>24</v>
       </c>
@@ -3528,7 +3666,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="1" t="s">
         <v>196</v>
       </c>
@@ -3538,19 +3676,19 @@
       <c r="D5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="30" t="s">
         <v>130</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="1" t="s">
         <v>197</v>
       </c>
@@ -3560,19 +3698,19 @@
       <c r="D6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="30" t="s">
         <v>130</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="1" t="s">
         <v>124</v>
       </c>
@@ -3582,19 +3720,19 @@
       <c r="D7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="30" t="s">
         <v>132</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="50" t="s">
         <v>204</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3606,19 +3744,19 @@
       <c r="D8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="1" t="s">
         <v>148</v>
       </c>
@@ -3628,19 +3766,19 @@
       <c r="D9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
@@ -3650,19 +3788,19 @@
       <c r="D10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="50" t="s">
         <v>205</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -3674,19 +3812,19 @@
       <c r="D11" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="34" t="s">
         <v>130</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="29" t="s">
         <v>207</v>
       </c>
@@ -3696,12 +3834,12 @@
       <c r="D12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="34" t="s">
         <v>130</v>
       </c>
@@ -3720,12 +3858,12 @@
       <c r="D13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="34" t="s">
         <v>130</v>
       </c>
@@ -3752,7 +3890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
@@ -3789,12 +3927,12 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
@@ -3803,7 +3941,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3815,17 +3953,17 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
@@ -3835,17 +3973,17 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
@@ -3855,17 +3993,17 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
@@ -3873,19 +4011,19 @@
         <v>51</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
@@ -3895,19 +4033,19 @@
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
@@ -3917,19 +4055,19 @@
       <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>79</v>
@@ -3937,17 +4075,17 @@
       <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="2" t="s">
         <v>89</v>
       </c>
@@ -3957,24 +4095,24 @@
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3983,37 +4121,37 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
@@ -4021,17 +4159,17 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
@@ -4039,17 +4177,17 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
@@ -4057,17 +4195,17 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
@@ -4075,19 +4213,19 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
@@ -4097,10 +4235,10 @@
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="6" t="s">
         <v>25</v>
       </c>
@@ -4109,7 +4247,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -4119,122 +4257,122 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="13"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="13"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="13"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="13"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="13"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="13"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -4246,17 +4384,17 @@
       <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -4266,59 +4404,59 @@
       <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
@@ -4328,31 +4466,31 @@
       <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
       <c r="I34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
       <c r="I35" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="40" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4362,17 +4500,17 @@
         <v>35</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -4382,45 +4520,45 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="40" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4430,17 +4568,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="2" t="s">
         <v>62</v>
       </c>
@@ -4448,103 +4586,103 @@
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="46"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
       <c r="I46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4554,17 +4692,17 @@
       <c r="D48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -4572,132 +4710,132 @@
       <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
       <c r="I59" s="6"/>
       <c r="J59" s="1"/>
     </row>
@@ -4728,30 +4866,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E47:H47"/>
@@ -4768,30 +4906,30 @@
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A4:A28"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
